--- a/apps/load_data/2020/09/PLMOVMAE.xlsx
+++ b/apps/load_data/2020/09/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2020\HHY0920\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020-m\HHY0920\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6508C8F5-59E3-49EC-9B36-B115C24491C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8665EF-9375-4209-97FD-50B3CD3C0154}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9720" windowHeight="11235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9720" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CI$262</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CI$262</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11601" uniqueCount="3168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11581" uniqueCount="3165">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6853,9 +6854,6 @@
     <t>08771747</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -8074,9 +8072,6 @@
     <t>06567208</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -8354,9 +8349,6 @@
   </si>
   <si>
     <t>09842316</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -9532,7 +9524,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -10372,10 +10364,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD173" sqref="AC173:AD263"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -43380,12 +43374,7 @@
       <c r="AB173" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AC173" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD173" s="1" t="s">
-        <v>2276</v>
-      </c>
+      <c r="AC173" s="3"/>
       <c r="AF173" s="1" t="s">
         <v>106</v>
       </c>
@@ -43438,7 +43427,7 @@
         <v>20</v>
       </c>
       <c r="BD173" s="1" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="BE173" s="1" t="s">
         <v>113</v>
@@ -43450,10 +43439,10 @@
         <v>115</v>
       </c>
       <c r="BH173" s="1" t="s">
+        <v>2277</v>
+      </c>
+      <c r="BI173" s="1" t="s">
         <v>2278</v>
-      </c>
-      <c r="BI173" s="1" t="s">
-        <v>2279</v>
       </c>
       <c r="BM173" s="1" t="s">
         <v>118</v>
@@ -43468,13 +43457,13 @@
         <v>165</v>
       </c>
       <c r="BR173" s="1" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="BS173" s="3">
         <v>36225</v>
       </c>
       <c r="BT173" s="1" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="BU173" s="1" t="s">
         <v>122</v>
@@ -43495,19 +43484,19 @@
         <v>101</v>
       </c>
       <c r="CC173" s="1" t="s">
+        <v>2281</v>
+      </c>
+      <c r="CD173" s="1" t="s">
         <v>2282</v>
       </c>
-      <c r="CD173" s="1" t="s">
+      <c r="CE173" s="1" t="s">
         <v>2283</v>
       </c>
-      <c r="CE173" s="1" t="s">
+      <c r="CG173" s="1" t="s">
         <v>2284</v>
       </c>
-      <c r="CG173" s="1" t="s">
+      <c r="CH173" s="1" t="s">
         <v>2285</v>
-      </c>
-      <c r="CH173" s="1" t="s">
-        <v>2286</v>
       </c>
       <c r="CI173" s="1" t="s">
         <v>130</v>
@@ -43545,13 +43534,13 @@
         <v>96</v>
       </c>
       <c r="K174" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="L174" s="1" t="s">
         <v>2287</v>
       </c>
-      <c r="L174" s="1" t="s">
+      <c r="N174" s="1" t="s">
         <v>2288</v>
-      </c>
-      <c r="N174" s="1" t="s">
-        <v>2289</v>
       </c>
       <c r="O174" s="1" t="s">
         <v>100</v>
@@ -43583,12 +43572,7 @@
       <c r="AB174" s="1" t="s">
         <v>1236</v>
       </c>
-      <c r="AC174" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD174" s="1" t="s">
-        <v>2276</v>
-      </c>
+      <c r="AC174" s="3"/>
       <c r="AF174" s="1" t="s">
         <v>106</v>
       </c>
@@ -43635,7 +43619,7 @@
         <v>101</v>
       </c>
       <c r="AZ174" s="1" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="BB174" s="1">
         <v>9</v>
@@ -43644,7 +43628,7 @@
         <v>20</v>
       </c>
       <c r="BD174" s="1" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="BE174" s="1" t="s">
         <v>113</v>
@@ -43656,7 +43640,7 @@
         <v>115</v>
       </c>
       <c r="BH174" s="1" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="BI174" s="1" t="s">
         <v>1670</v>
@@ -43671,13 +43655,13 @@
         <v>102</v>
       </c>
       <c r="BR174" s="1" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="BS174" s="3">
         <v>36949</v>
       </c>
       <c r="BT174" s="1" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="BU174" s="1" t="s">
         <v>122</v>
@@ -43701,16 +43685,16 @@
         <v>101</v>
       </c>
       <c r="CC174" s="1" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="CD174" s="1" t="s">
         <v>1987</v>
       </c>
       <c r="CE174" s="1" t="s">
+        <v>2295</v>
+      </c>
+      <c r="CG174" s="1" t="s">
         <v>2296</v>
-      </c>
-      <c r="CG174" s="1" t="s">
-        <v>2297</v>
       </c>
       <c r="CH174" s="1" t="s">
         <v>1675</v>
@@ -43751,13 +43735,13 @@
         <v>96</v>
       </c>
       <c r="K175" s="1" t="s">
+        <v>2297</v>
+      </c>
+      <c r="L175" s="1" t="s">
         <v>2298</v>
       </c>
-      <c r="L175" s="1" t="s">
+      <c r="N175" s="1" t="s">
         <v>2299</v>
-      </c>
-      <c r="N175" s="1" t="s">
-        <v>2300</v>
       </c>
       <c r="O175" s="1" t="s">
         <v>100</v>
@@ -43789,12 +43773,7 @@
       <c r="AB175" s="1" t="s">
         <v>1236</v>
       </c>
-      <c r="AC175" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD175" s="1" t="s">
-        <v>2276</v>
-      </c>
+      <c r="AC175" s="3"/>
       <c r="AF175" s="1" t="s">
         <v>106</v>
       </c>
@@ -43841,7 +43820,7 @@
         <v>101</v>
       </c>
       <c r="AZ175" s="1" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="BB175" s="1">
         <v>9</v>
@@ -43850,7 +43829,7 @@
         <v>20</v>
       </c>
       <c r="BD175" s="1" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="BE175" s="1" t="s">
         <v>113</v>
@@ -43862,10 +43841,10 @@
         <v>115</v>
       </c>
       <c r="BH175" s="1" t="s">
+        <v>2302</v>
+      </c>
+      <c r="BI175" s="1" t="s">
         <v>2303</v>
-      </c>
-      <c r="BI175" s="1" t="s">
-        <v>2304</v>
       </c>
       <c r="BM175" s="1" t="s">
         <v>118</v>
@@ -43880,13 +43859,13 @@
         <v>165</v>
       </c>
       <c r="BR175" s="1" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="BS175" s="3">
         <v>36825</v>
       </c>
       <c r="BT175" s="1" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="BU175" s="1" t="s">
         <v>122</v>
@@ -43910,19 +43889,19 @@
         <v>101</v>
       </c>
       <c r="CC175" s="1" t="s">
+        <v>2306</v>
+      </c>
+      <c r="CD175" s="1" t="s">
         <v>2307</v>
       </c>
-      <c r="CD175" s="1" t="s">
+      <c r="CE175" s="1" t="s">
         <v>2308</v>
       </c>
-      <c r="CE175" s="1" t="s">
+      <c r="CG175" s="1" t="s">
         <v>2309</v>
       </c>
-      <c r="CG175" s="1" t="s">
+      <c r="CH175" s="1" t="s">
         <v>2310</v>
-      </c>
-      <c r="CH175" s="1" t="s">
-        <v>2311</v>
       </c>
       <c r="CI175" s="1" t="s">
         <v>130</v>
@@ -43960,13 +43939,13 @@
         <v>96</v>
       </c>
       <c r="K176" s="1" t="s">
+        <v>2311</v>
+      </c>
+      <c r="L176" s="1" t="s">
         <v>2312</v>
       </c>
-      <c r="L176" s="1" t="s">
+      <c r="N176" s="1" t="s">
         <v>2313</v>
-      </c>
-      <c r="N176" s="1" t="s">
-        <v>2314</v>
       </c>
       <c r="O176" s="1" t="s">
         <v>100</v>
@@ -43995,12 +43974,7 @@
       <c r="AA176" s="1">
         <v>0</v>
       </c>
-      <c r="AC176" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD176" s="1" t="s">
-        <v>2276</v>
-      </c>
+      <c r="AC176" s="3"/>
       <c r="AF176" s="1" t="s">
         <v>106</v>
       </c>
@@ -44050,7 +44024,7 @@
         <v>101</v>
       </c>
       <c r="AZ176" s="1" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="BB176" s="1">
         <v>9</v>
@@ -44059,7 +44033,7 @@
         <v>20</v>
       </c>
       <c r="BD176" s="1" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="BE176" s="1" t="s">
         <v>113</v>
@@ -44071,7 +44045,7 @@
         <v>115</v>
       </c>
       <c r="BH176" s="1" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="BM176" s="1" t="s">
         <v>118</v>
@@ -44080,7 +44054,7 @@
         <v>105</v>
       </c>
       <c r="BT176" s="1" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="BU176" s="1" t="s">
         <v>122</v>
@@ -44098,16 +44072,16 @@
         <v>101</v>
       </c>
       <c r="CC176" s="1" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="CD176" s="1" t="s">
         <v>1229</v>
       </c>
       <c r="CE176" s="1" t="s">
+        <v>2319</v>
+      </c>
+      <c r="CG176" s="1" t="s">
         <v>2320</v>
-      </c>
-      <c r="CG176" s="1" t="s">
-        <v>2321</v>
       </c>
       <c r="CH176" s="1" t="s">
         <v>130</v>
@@ -44148,13 +44122,13 @@
         <v>96</v>
       </c>
       <c r="K177" s="1" t="s">
+        <v>2321</v>
+      </c>
+      <c r="L177" s="1" t="s">
         <v>2322</v>
       </c>
-      <c r="L177" s="1" t="s">
+      <c r="N177" s="1" t="s">
         <v>2323</v>
-      </c>
-      <c r="N177" s="1" t="s">
-        <v>2324</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>100</v>
@@ -44186,12 +44160,7 @@
       <c r="AB177" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AC177" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD177" s="1" t="s">
-        <v>2276</v>
-      </c>
+      <c r="AC177" s="3"/>
       <c r="AF177" s="1" t="s">
         <v>106</v>
       </c>
@@ -44241,7 +44210,7 @@
         <v>101</v>
       </c>
       <c r="AZ177" s="1" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="BB177" s="1">
         <v>9</v>
@@ -44250,7 +44219,7 @@
         <v>20</v>
       </c>
       <c r="BD177" s="1" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="BE177" s="1" t="s">
         <v>113</v>
@@ -44262,7 +44231,7 @@
         <v>115</v>
       </c>
       <c r="BH177" s="1" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="BI177" s="1" t="s">
         <v>381</v>
@@ -44274,7 +44243,7 @@
         <v>105</v>
       </c>
       <c r="BT177" s="1" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="BU177" s="1" t="s">
         <v>122</v>
@@ -44295,13 +44264,13 @@
         <v>685</v>
       </c>
       <c r="CD177" s="1" t="s">
+        <v>2328</v>
+      </c>
+      <c r="CE177" s="1" t="s">
         <v>2329</v>
       </c>
-      <c r="CE177" s="1" t="s">
+      <c r="CG177" s="1" t="s">
         <v>2330</v>
-      </c>
-      <c r="CG177" s="1" t="s">
-        <v>2331</v>
       </c>
       <c r="CH177" s="1" t="s">
         <v>388</v>
@@ -44342,13 +44311,13 @@
         <v>96</v>
       </c>
       <c r="K178" s="1" t="s">
+        <v>2331</v>
+      </c>
+      <c r="L178" s="1" t="s">
         <v>2332</v>
       </c>
-      <c r="L178" s="1" t="s">
+      <c r="N178" s="1" t="s">
         <v>2333</v>
-      </c>
-      <c r="N178" s="1" t="s">
-        <v>2334</v>
       </c>
       <c r="O178" s="1" t="s">
         <v>100</v>
@@ -44377,12 +44346,7 @@
       <c r="AA178" s="1">
         <v>0</v>
       </c>
-      <c r="AC178" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD178" s="1" t="s">
-        <v>2276</v>
-      </c>
+      <c r="AC178" s="3"/>
       <c r="AF178" s="1" t="s">
         <v>106</v>
       </c>
@@ -44432,7 +44396,7 @@
         <v>101</v>
       </c>
       <c r="AZ178" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="BB178" s="1">
         <v>9</v>
@@ -44441,7 +44405,7 @@
         <v>20</v>
       </c>
       <c r="BD178" s="1" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="BE178" s="1" t="s">
         <v>113</v>
@@ -44453,7 +44417,7 @@
         <v>115</v>
       </c>
       <c r="BH178" s="1" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="BI178" s="1" t="s">
         <v>783</v>
@@ -44465,7 +44429,7 @@
         <v>105</v>
       </c>
       <c r="BT178" s="1" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="BU178" s="1" t="s">
         <v>122</v>
@@ -44483,16 +44447,16 @@
         <v>101</v>
       </c>
       <c r="CC178" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="CD178" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="CE178" s="1" t="s">
         <v>2339</v>
       </c>
-      <c r="CD178" s="1" t="s">
-        <v>2339</v>
-      </c>
-      <c r="CE178" s="1" t="s">
+      <c r="CG178" s="1" t="s">
         <v>2340</v>
-      </c>
-      <c r="CG178" s="1" t="s">
-        <v>2341</v>
       </c>
       <c r="CH178" s="1" t="s">
         <v>789</v>
@@ -44533,13 +44497,13 @@
         <v>96</v>
       </c>
       <c r="K179" s="1" t="s">
+        <v>2341</v>
+      </c>
+      <c r="L179" s="1" t="s">
         <v>2342</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="N179" s="1" t="s">
         <v>2343</v>
-      </c>
-      <c r="N179" s="1" t="s">
-        <v>2344</v>
       </c>
       <c r="O179" s="1" t="s">
         <v>100</v>
@@ -44574,12 +44538,7 @@
       <c r="AA179" s="1">
         <v>0</v>
       </c>
-      <c r="AC179" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD179" s="1" t="s">
-        <v>2276</v>
-      </c>
+      <c r="AC179" s="3"/>
       <c r="AF179" s="1" t="s">
         <v>106</v>
       </c>
@@ -44626,7 +44585,7 @@
         <v>101</v>
       </c>
       <c r="AZ179" s="1" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="BB179" s="1">
         <v>9</v>
@@ -44635,7 +44594,7 @@
         <v>20</v>
       </c>
       <c r="BD179" s="1" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="BE179" s="1" t="s">
         <v>113</v>
@@ -44647,10 +44606,10 @@
         <v>115</v>
       </c>
       <c r="BH179" s="1" t="s">
+        <v>2346</v>
+      </c>
+      <c r="BI179" s="1" t="s">
         <v>2347</v>
-      </c>
-      <c r="BI179" s="1" t="s">
-        <v>2348</v>
       </c>
       <c r="BM179" s="1" t="s">
         <v>118</v>
@@ -44662,13 +44621,13 @@
         <v>119</v>
       </c>
       <c r="BR179" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="BS179" s="3">
         <v>35243</v>
       </c>
       <c r="BT179" s="1" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="BU179" s="1" t="s">
         <v>122</v>
@@ -44686,19 +44645,19 @@
         <v>101</v>
       </c>
       <c r="CC179" s="1" t="s">
+        <v>2350</v>
+      </c>
+      <c r="CD179" s="1" t="s">
         <v>2351</v>
       </c>
-      <c r="CD179" s="1" t="s">
+      <c r="CE179" s="1" t="s">
         <v>2352</v>
       </c>
-      <c r="CE179" s="1" t="s">
+      <c r="CG179" s="1" t="s">
         <v>2353</v>
       </c>
-      <c r="CG179" s="1" t="s">
+      <c r="CH179" s="1" t="s">
         <v>2354</v>
-      </c>
-      <c r="CH179" s="1" t="s">
-        <v>2355</v>
       </c>
       <c r="CI179" s="1" t="s">
         <v>130</v>
@@ -44736,13 +44695,13 @@
         <v>96</v>
       </c>
       <c r="K180" s="1" t="s">
+        <v>2355</v>
+      </c>
+      <c r="L180" s="1" t="s">
         <v>2356</v>
       </c>
-      <c r="L180" s="1" t="s">
+      <c r="N180" s="1" t="s">
         <v>2357</v>
-      </c>
-      <c r="N180" s="1" t="s">
-        <v>2358</v>
       </c>
       <c r="O180" s="1" t="s">
         <v>100</v>
@@ -44771,12 +44730,7 @@
       <c r="AA180" s="1">
         <v>0</v>
       </c>
-      <c r="AC180" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD180" s="1" t="s">
-        <v>2276</v>
-      </c>
+      <c r="AC180" s="3"/>
       <c r="AF180" s="1" t="s">
         <v>106</v>
       </c>
@@ -44826,7 +44780,7 @@
         <v>101</v>
       </c>
       <c r="AZ180" s="1" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="BB180" s="1">
         <v>9</v>
@@ -44835,7 +44789,7 @@
         <v>20</v>
       </c>
       <c r="BD180" s="1" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="BE180" s="1" t="s">
         <v>113</v>
@@ -44847,7 +44801,7 @@
         <v>115</v>
       </c>
       <c r="BH180" s="1" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="BI180" s="1" t="s">
         <v>783</v>
@@ -44859,7 +44813,7 @@
         <v>105</v>
       </c>
       <c r="BT180" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="BU180" s="1" t="s">
         <v>122</v>
@@ -44877,16 +44831,16 @@
         <v>101</v>
       </c>
       <c r="CC180" s="1" t="s">
+        <v>2362</v>
+      </c>
+      <c r="CD180" s="1" t="s">
         <v>2363</v>
       </c>
-      <c r="CD180" s="1" t="s">
+      <c r="CE180" s="1" t="s">
         <v>2364</v>
       </c>
-      <c r="CE180" s="1" t="s">
+      <c r="CG180" s="1" t="s">
         <v>2365</v>
-      </c>
-      <c r="CG180" s="1" t="s">
-        <v>2366</v>
       </c>
       <c r="CH180" s="1" t="s">
         <v>789</v>
@@ -44927,13 +44881,13 @@
         <v>96</v>
       </c>
       <c r="K181" s="1" t="s">
+        <v>2366</v>
+      </c>
+      <c r="L181" s="1" t="s">
         <v>2367</v>
       </c>
-      <c r="L181" s="1" t="s">
+      <c r="N181" s="1" t="s">
         <v>2368</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>2369</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>100</v>
@@ -44962,12 +44916,7 @@
       <c r="AA181" s="1">
         <v>0</v>
       </c>
-      <c r="AC181" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD181" s="1" t="s">
-        <v>2276</v>
-      </c>
+      <c r="AC181" s="3"/>
       <c r="AF181" s="1" t="s">
         <v>106</v>
       </c>
@@ -45017,7 +44966,7 @@
         <v>101</v>
       </c>
       <c r="AZ181" s="1" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="BB181" s="1">
         <v>9</v>
@@ -45026,7 +44975,7 @@
         <v>20</v>
       </c>
       <c r="BD181" s="1" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="BE181" s="1" t="s">
         <v>113</v>
@@ -45053,7 +45002,7 @@
         <v>165</v>
       </c>
       <c r="BT181" s="1" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="BU181" s="1" t="s">
         <v>122</v>
@@ -45071,13 +45020,13 @@
         <v>101</v>
       </c>
       <c r="CC181" s="1" t="s">
+        <v>2372</v>
+      </c>
+      <c r="CD181" s="1" t="s">
         <v>2373</v>
       </c>
-      <c r="CD181" s="1" t="s">
+      <c r="CE181" s="1" t="s">
         <v>2374</v>
-      </c>
-      <c r="CE181" s="1" t="s">
-        <v>2375</v>
       </c>
       <c r="CG181" s="1" t="s">
         <v>1025</v>
@@ -45097,13 +45046,13 @@
         <v>88</v>
       </c>
       <c r="C182" s="1" t="s">
+        <v>2375</v>
+      </c>
+      <c r="D182" s="1" t="s">
         <v>2376</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="E182" s="1" t="s">
         <v>2377</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>2378</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>101</v>
@@ -45115,19 +45064,19 @@
         <v>94</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K182" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="L182" s="1" t="s">
         <v>2380</v>
       </c>
-      <c r="L182" s="1" t="s">
+      <c r="N182" s="1" t="s">
         <v>2381</v>
-      </c>
-      <c r="N182" s="1" t="s">
-        <v>2382</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>100</v>
@@ -45159,12 +45108,7 @@
       <c r="AA182" s="1">
         <v>0</v>
       </c>
-      <c r="AC182" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD182" s="1" t="s">
-        <v>2276</v>
-      </c>
+      <c r="AC182" s="3"/>
       <c r="AF182" s="1" t="s">
         <v>106</v>
       </c>
@@ -45214,7 +45158,7 @@
         <v>101</v>
       </c>
       <c r="AZ182" s="1" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="BB182" s="1">
         <v>9</v>
@@ -45223,7 +45167,7 @@
         <v>20</v>
       </c>
       <c r="BD182" s="1" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="BE182" s="1" t="s">
         <v>113</v>
@@ -45235,7 +45179,7 @@
         <v>115</v>
       </c>
       <c r="BH182" s="1" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="BM182" s="1" t="s">
         <v>118</v>
@@ -45244,7 +45188,7 @@
         <v>105</v>
       </c>
       <c r="BT182" s="1" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="BU182" s="1" t="s">
         <v>122</v>
@@ -45265,16 +45209,16 @@
         <v>101</v>
       </c>
       <c r="CC182" s="1" t="s">
+        <v>2386</v>
+      </c>
+      <c r="CD182" s="1" t="s">
         <v>2387</v>
       </c>
-      <c r="CD182" s="1" t="s">
+      <c r="CE182" s="1" t="s">
         <v>2388</v>
       </c>
-      <c r="CE182" s="1" t="s">
+      <c r="CG182" s="1" t="s">
         <v>2389</v>
-      </c>
-      <c r="CG182" s="1" t="s">
-        <v>2390</v>
       </c>
       <c r="CH182" s="1" t="s">
         <v>130</v>
@@ -45315,13 +45259,13 @@
         <v>96</v>
       </c>
       <c r="K183" s="1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="L183" s="1" t="s">
         <v>2391</v>
       </c>
-      <c r="L183" s="1" t="s">
+      <c r="N183" s="1" t="s">
         <v>2392</v>
-      </c>
-      <c r="N183" s="1" t="s">
-        <v>2393</v>
       </c>
       <c r="O183" s="1" t="s">
         <v>100</v>
@@ -45350,12 +45294,7 @@
       <c r="AA183" s="1">
         <v>0</v>
       </c>
-      <c r="AC183" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD183" s="1" t="s">
-        <v>2276</v>
-      </c>
+      <c r="AC183" s="3"/>
       <c r="AF183" s="1" t="s">
         <v>106</v>
       </c>
@@ -45402,7 +45341,7 @@
         <v>101</v>
       </c>
       <c r="AZ183" s="1" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="BB183" s="1">
         <v>9</v>
@@ -45411,7 +45350,7 @@
         <v>20</v>
       </c>
       <c r="BD183" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="BE183" s="1" t="s">
         <v>113</v>
@@ -45423,10 +45362,10 @@
         <v>115</v>
       </c>
       <c r="BH183" s="1" t="s">
+        <v>2395</v>
+      </c>
+      <c r="BI183" s="1" t="s">
         <v>2396</v>
-      </c>
-      <c r="BI183" s="1" t="s">
-        <v>2397</v>
       </c>
       <c r="BM183" s="1" t="s">
         <v>118</v>
@@ -45438,13 +45377,13 @@
         <v>119</v>
       </c>
       <c r="BR183" s="1" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="BS183" s="3">
         <v>35950</v>
       </c>
       <c r="BT183" s="1" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="BU183" s="1" t="s">
         <v>122</v>
@@ -45462,19 +45401,19 @@
         <v>101</v>
       </c>
       <c r="CC183" s="1" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="CD183" s="1" t="s">
         <v>1793</v>
       </c>
       <c r="CE183" s="1" t="s">
+        <v>2400</v>
+      </c>
+      <c r="CG183" s="1" t="s">
         <v>2401</v>
       </c>
-      <c r="CG183" s="1" t="s">
+      <c r="CH183" s="1" t="s">
         <v>2402</v>
-      </c>
-      <c r="CH183" s="1" t="s">
-        <v>2403</v>
       </c>
       <c r="CI183" s="1" t="s">
         <v>130</v>
@@ -45512,13 +45451,13 @@
         <v>96</v>
       </c>
       <c r="K184" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="L184" s="1" t="s">
         <v>2404</v>
       </c>
-      <c r="L184" s="1" t="s">
+      <c r="N184" s="1" t="s">
         <v>2405</v>
-      </c>
-      <c r="N184" s="1" t="s">
-        <v>2406</v>
       </c>
       <c r="O184" s="1" t="s">
         <v>100</v>
@@ -45599,7 +45538,7 @@
         <v>101</v>
       </c>
       <c r="AZ184" s="1" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="BB184" s="1">
         <v>9</v>
@@ -45608,7 +45547,7 @@
         <v>20</v>
       </c>
       <c r="BD184" s="1" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="BE184" s="1" t="s">
         <v>113</v>
@@ -45620,7 +45559,7 @@
         <v>115</v>
       </c>
       <c r="BH184" s="1" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="BI184" s="1" t="s">
         <v>1876</v>
@@ -45635,7 +45574,7 @@
         <v>165</v>
       </c>
       <c r="BT184" s="1" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="BU184" s="1" t="s">
         <v>122</v>
@@ -45653,16 +45592,16 @@
         <v>101</v>
       </c>
       <c r="CC184" s="1" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="CD184" s="1" t="s">
         <v>426</v>
       </c>
       <c r="CE184" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="CG184" s="1" t="s">
         <v>2412</v>
-      </c>
-      <c r="CG184" s="1" t="s">
-        <v>2413</v>
       </c>
       <c r="CH184" s="1" t="s">
         <v>1883</v>
@@ -45703,13 +45642,13 @@
         <v>96</v>
       </c>
       <c r="K185" s="1" t="s">
+        <v>2413</v>
+      </c>
+      <c r="L185" s="1" t="s">
         <v>2414</v>
       </c>
-      <c r="L185" s="1" t="s">
+      <c r="N185" s="1" t="s">
         <v>2415</v>
-      </c>
-      <c r="N185" s="1" t="s">
-        <v>2416</v>
       </c>
       <c r="O185" s="1" t="s">
         <v>100</v>
@@ -45784,7 +45723,7 @@
         <v>101</v>
       </c>
       <c r="AZ185" s="1" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="BB185" s="1">
         <v>9</v>
@@ -45793,7 +45732,7 @@
         <v>20</v>
       </c>
       <c r="BD185" s="1" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="BE185" s="1" t="s">
         <v>113</v>
@@ -45805,7 +45744,7 @@
         <v>115</v>
       </c>
       <c r="BH185" s="1" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="BI185" s="1" t="s">
         <v>1843</v>
@@ -45820,13 +45759,13 @@
         <v>231</v>
       </c>
       <c r="BR185" s="1" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="BS185" s="3">
         <v>36099</v>
       </c>
       <c r="BT185" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="BU185" s="1" t="s">
         <v>122</v>
@@ -45844,16 +45783,16 @@
         <v>101</v>
       </c>
       <c r="CC185" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="CD185" s="1" t="s">
         <v>2422</v>
       </c>
-      <c r="CD185" s="1" t="s">
+      <c r="CE185" s="1" t="s">
         <v>2423</v>
       </c>
-      <c r="CE185" s="1" t="s">
+      <c r="CG185" s="1" t="s">
         <v>2424</v>
-      </c>
-      <c r="CG185" s="1" t="s">
-        <v>2425</v>
       </c>
       <c r="CH185" s="1" t="s">
         <v>1849</v>
@@ -45894,13 +45833,13 @@
         <v>96</v>
       </c>
       <c r="K186" s="1" t="s">
+        <v>2425</v>
+      </c>
+      <c r="L186" s="1" t="s">
         <v>2426</v>
       </c>
-      <c r="L186" s="1" t="s">
+      <c r="N186" s="1" t="s">
         <v>2427</v>
-      </c>
-      <c r="N186" s="1" t="s">
-        <v>2428</v>
       </c>
       <c r="O186" s="1" t="s">
         <v>100</v>
@@ -45975,7 +45914,7 @@
         <v>101</v>
       </c>
       <c r="AZ186" s="1" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="BB186" s="1">
         <v>9</v>
@@ -45984,7 +45923,7 @@
         <v>20</v>
       </c>
       <c r="BD186" s="1" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="BE186" s="1" t="s">
         <v>113</v>
@@ -45996,10 +45935,10 @@
         <v>115</v>
       </c>
       <c r="BH186" s="1" t="s">
+        <v>2430</v>
+      </c>
+      <c r="BI186" s="1" t="s">
         <v>2431</v>
-      </c>
-      <c r="BI186" s="1" t="s">
-        <v>2432</v>
       </c>
       <c r="BM186" s="1" t="s">
         <v>118</v>
@@ -46011,13 +45950,13 @@
         <v>102</v>
       </c>
       <c r="BR186" s="1" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="BS186" s="3">
         <v>37735</v>
       </c>
       <c r="BT186" s="1" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="BU186" s="1" t="s">
         <v>122</v>
@@ -46035,19 +45974,19 @@
         <v>101</v>
       </c>
       <c r="CC186" s="1" t="s">
+        <v>2434</v>
+      </c>
+      <c r="CD186" s="1" t="s">
         <v>2435</v>
       </c>
-      <c r="CD186" s="1" t="s">
+      <c r="CE186" s="1" t="s">
         <v>2436</v>
       </c>
-      <c r="CE186" s="1" t="s">
+      <c r="CG186" s="1" t="s">
         <v>2437</v>
       </c>
-      <c r="CG186" s="1" t="s">
+      <c r="CH186" s="1" t="s">
         <v>2438</v>
-      </c>
-      <c r="CH186" s="1" t="s">
-        <v>2439</v>
       </c>
       <c r="CI186" s="1" t="s">
         <v>130</v>
@@ -46085,13 +46024,13 @@
         <v>96</v>
       </c>
       <c r="K187" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="L187" s="1" t="s">
         <v>2440</v>
       </c>
-      <c r="L187" s="1" t="s">
+      <c r="N187" s="1" t="s">
         <v>2441</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>2442</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>100</v>
@@ -46169,7 +46108,7 @@
         <v>101</v>
       </c>
       <c r="AZ187" s="1" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="BB187" s="1">
         <v>9</v>
@@ -46178,7 +46117,7 @@
         <v>20</v>
       </c>
       <c r="BD187" s="1" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="BE187" s="1" t="s">
         <v>113</v>
@@ -46190,7 +46129,7 @@
         <v>115</v>
       </c>
       <c r="BH187" s="1" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="BI187" s="1" t="s">
         <v>381</v>
@@ -46202,7 +46141,7 @@
         <v>105</v>
       </c>
       <c r="BT187" s="1" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="BU187" s="1" t="s">
         <v>122</v>
@@ -46220,16 +46159,16 @@
         <v>101</v>
       </c>
       <c r="CC187" s="1" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="CD187" s="1" t="s">
         <v>875</v>
       </c>
       <c r="CE187" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="CG187" s="1" t="s">
         <v>2448</v>
-      </c>
-      <c r="CG187" s="1" t="s">
-        <v>2449</v>
       </c>
       <c r="CH187" s="1" t="s">
         <v>388</v>
@@ -46252,7 +46191,7 @@
         <v>189</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>101</v>
@@ -46264,19 +46203,19 @@
         <v>94</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K188" s="1" t="s">
+        <v>2451</v>
+      </c>
+      <c r="L188" s="1" t="s">
         <v>2452</v>
       </c>
-      <c r="L188" s="1" t="s">
+      <c r="N188" s="1" t="s">
         <v>2453</v>
-      </c>
-      <c r="N188" s="1" t="s">
-        <v>2454</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>100</v>
@@ -46312,7 +46251,7 @@
         <v>106</v>
       </c>
       <c r="AG188" s="1" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="AH188" s="1" t="s">
         <v>1908</v>
@@ -46357,7 +46296,7 @@
         <v>101</v>
       </c>
       <c r="AZ188" s="1" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="BB188" s="1">
         <v>9</v>
@@ -46366,7 +46305,7 @@
         <v>20</v>
       </c>
       <c r="BD188" s="1" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="BE188" s="1" t="s">
         <v>113</v>
@@ -46378,7 +46317,7 @@
         <v>115</v>
       </c>
       <c r="BH188" s="1" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="BM188" s="1" t="s">
         <v>118</v>
@@ -46387,7 +46326,7 @@
         <v>105</v>
       </c>
       <c r="BT188" s="1" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="BU188" s="1" t="s">
         <v>122</v>
@@ -46396,7 +46335,7 @@
         <v>0</v>
       </c>
       <c r="BZ188" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="CA188" s="1" t="s">
         <v>124</v>
@@ -46408,13 +46347,13 @@
         <v>1589</v>
       </c>
       <c r="CD188" s="1" t="s">
+        <v>2460</v>
+      </c>
+      <c r="CE188" s="1" t="s">
         <v>2461</v>
       </c>
-      <c r="CE188" s="1" t="s">
+      <c r="CG188" s="1" t="s">
         <v>2462</v>
-      </c>
-      <c r="CG188" s="1" t="s">
-        <v>2463</v>
       </c>
       <c r="CH188" s="1" t="s">
         <v>130</v>
@@ -46455,13 +46394,13 @@
         <v>96</v>
       </c>
       <c r="K189" s="1" t="s">
+        <v>2463</v>
+      </c>
+      <c r="L189" s="1" t="s">
         <v>2464</v>
       </c>
-      <c r="L189" s="1" t="s">
+      <c r="N189" s="1" t="s">
         <v>2465</v>
-      </c>
-      <c r="N189" s="1" t="s">
-        <v>2466</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>100</v>
@@ -46539,7 +46478,7 @@
         <v>101</v>
       </c>
       <c r="AZ189" s="1" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="BB189" s="1">
         <v>9</v>
@@ -46548,7 +46487,7 @@
         <v>20</v>
       </c>
       <c r="BD189" s="1" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="BE189" s="1" t="s">
         <v>113</v>
@@ -46560,10 +46499,10 @@
         <v>115</v>
       </c>
       <c r="BH189" s="1" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="BI189" s="1" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="BM189" s="1" t="s">
         <v>118</v>
@@ -46575,13 +46514,13 @@
         <v>102</v>
       </c>
       <c r="BR189" s="1" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="BS189" s="3">
         <v>43602</v>
       </c>
       <c r="BT189" s="1" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="BU189" s="1" t="s">
         <v>122</v>
@@ -46605,13 +46544,13 @@
         <v>961</v>
       </c>
       <c r="CE189" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="CG189" s="1" t="s">
         <v>2472</v>
       </c>
-      <c r="CG189" s="1" t="s">
-        <v>2473</v>
-      </c>
       <c r="CH189" s="1" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="CI189" s="1" t="s">
         <v>130</v>
@@ -46649,13 +46588,13 @@
         <v>96</v>
       </c>
       <c r="K190" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="L190" s="1" t="s">
         <v>2474</v>
       </c>
-      <c r="L190" s="1" t="s">
+      <c r="N190" s="1" t="s">
         <v>2475</v>
-      </c>
-      <c r="N190" s="1" t="s">
-        <v>2476</v>
       </c>
       <c r="O190" s="1" t="s">
         <v>100</v>
@@ -46733,7 +46672,7 @@
         <v>101</v>
       </c>
       <c r="AZ190" s="1" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="BB190" s="1">
         <v>9</v>
@@ -46742,7 +46681,7 @@
         <v>20</v>
       </c>
       <c r="BD190" s="1" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="BE190" s="1" t="s">
         <v>113</v>
@@ -46754,7 +46693,7 @@
         <v>115</v>
       </c>
       <c r="BH190" s="1" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="BI190" s="1" t="s">
         <v>586</v>
@@ -46766,7 +46705,7 @@
         <v>105</v>
       </c>
       <c r="BT190" s="1" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="BU190" s="1" t="s">
         <v>122</v>
@@ -46784,16 +46723,16 @@
         <v>101</v>
       </c>
       <c r="CC190" s="1" t="s">
+        <v>2480</v>
+      </c>
+      <c r="CD190" s="1" t="s">
         <v>2481</v>
       </c>
-      <c r="CD190" s="1" t="s">
+      <c r="CE190" s="1" t="s">
         <v>2482</v>
       </c>
-      <c r="CE190" s="1" t="s">
+      <c r="CG190" s="1" t="s">
         <v>2483</v>
-      </c>
-      <c r="CG190" s="1" t="s">
-        <v>2484</v>
       </c>
       <c r="CH190" s="1" t="s">
         <v>592</v>
@@ -46834,13 +46773,13 @@
         <v>96</v>
       </c>
       <c r="K191" s="1" t="s">
+        <v>2484</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>2485</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>2486</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>2487</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>100</v>
@@ -46879,7 +46818,7 @@
         <v>42247</v>
       </c>
       <c r="AD191" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="AF191" s="1" t="s">
         <v>106</v>
@@ -46933,7 +46872,7 @@
         <v>20</v>
       </c>
       <c r="BD191" s="1" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="BE191" s="1" t="s">
         <v>113</v>
@@ -46945,10 +46884,10 @@
         <v>115</v>
       </c>
       <c r="BH191" s="1" t="s">
+        <v>2489</v>
+      </c>
+      <c r="BI191" s="1" t="s">
         <v>2490</v>
-      </c>
-      <c r="BI191" s="1" t="s">
-        <v>2491</v>
       </c>
       <c r="BM191" s="1" t="s">
         <v>118</v>
@@ -46960,13 +46899,13 @@
         <v>231</v>
       </c>
       <c r="BR191" s="1" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="BS191" s="3">
         <v>36580</v>
       </c>
       <c r="BT191" s="1" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="BU191" s="1" t="s">
         <v>122</v>
@@ -46987,7 +46926,7 @@
         <v>101</v>
       </c>
       <c r="CC191" s="1" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="CD191" s="1" t="s">
         <v>296</v>
@@ -46996,10 +46935,10 @@
         <v>1618</v>
       </c>
       <c r="CG191" s="1" t="s">
+        <v>2494</v>
+      </c>
+      <c r="CH191" s="1" t="s">
         <v>2495</v>
-      </c>
-      <c r="CH191" s="1" t="s">
-        <v>2496</v>
       </c>
       <c r="CI191" s="1" t="s">
         <v>130</v>
@@ -47037,13 +46976,13 @@
         <v>96</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>2496</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>2497</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="N192" s="1" t="s">
         <v>2498</v>
-      </c>
-      <c r="N192" s="1" t="s">
-        <v>2499</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>100</v>
@@ -47124,7 +47063,7 @@
         <v>20</v>
       </c>
       <c r="BD192" s="1" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="BE192" s="1" t="s">
         <v>113</v>
@@ -47136,7 +47075,7 @@
         <v>115</v>
       </c>
       <c r="BH192" s="1" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="BI192" s="1" t="s">
         <v>1833</v>
@@ -47151,13 +47090,13 @@
         <v>119</v>
       </c>
       <c r="BR192" s="1" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="BS192" s="3">
         <v>37747</v>
       </c>
       <c r="BT192" s="1" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="BU192" s="1" t="s">
         <v>122</v>
@@ -47181,10 +47120,10 @@
         <v>673</v>
       </c>
       <c r="CE192" s="1" t="s">
+        <v>2503</v>
+      </c>
+      <c r="CG192" s="1" t="s">
         <v>2504</v>
-      </c>
-      <c r="CG192" s="1" t="s">
-        <v>2505</v>
       </c>
       <c r="CH192" s="1" t="s">
         <v>1837</v>
@@ -47225,13 +47164,13 @@
         <v>96</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2505</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2506</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>2507</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>2508</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>100</v>
@@ -47315,7 +47254,7 @@
         <v>20</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="BE193" s="1" t="s">
         <v>113</v>
@@ -47327,7 +47266,7 @@
         <v>115</v>
       </c>
       <c r="BH193" s="1" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="BM193" s="1" t="s">
         <v>118</v>
@@ -47336,7 +47275,7 @@
         <v>105</v>
       </c>
       <c r="BT193" s="1" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="BU193" s="1" t="s">
         <v>122</v>
@@ -47354,16 +47293,16 @@
         <v>101</v>
       </c>
       <c r="CC193" s="1" t="s">
+        <v>2511</v>
+      </c>
+      <c r="CD193" s="1" t="s">
         <v>2512</v>
       </c>
-      <c r="CD193" s="1" t="s">
+      <c r="CE193" s="1" t="s">
         <v>2513</v>
       </c>
-      <c r="CE193" s="1" t="s">
+      <c r="CG193" s="1" t="s">
         <v>2514</v>
-      </c>
-      <c r="CG193" s="1" t="s">
-        <v>2515</v>
       </c>
       <c r="CH193" s="1" t="s">
         <v>130</v>
@@ -47404,13 +47343,13 @@
         <v>96</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2515</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2516</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2517</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2518</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>100</v>
@@ -47494,7 +47433,7 @@
         <v>20</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="BE194" s="1" t="s">
         <v>113</v>
@@ -47506,7 +47445,7 @@
         <v>115</v>
       </c>
       <c r="BH194" s="1" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="BM194" s="1" t="s">
         <v>118</v>
@@ -47515,7 +47454,7 @@
         <v>165</v>
       </c>
       <c r="BT194" s="1" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="BU194" s="1" t="s">
         <v>122</v>
@@ -47533,16 +47472,16 @@
         <v>101</v>
       </c>
       <c r="CC194" s="1" t="s">
+        <v>2521</v>
+      </c>
+      <c r="CD194" s="1" t="s">
         <v>2522</v>
       </c>
-      <c r="CD194" s="1" t="s">
+      <c r="CE194" s="1" t="s">
         <v>2523</v>
       </c>
-      <c r="CE194" s="1" t="s">
+      <c r="CG194" s="1" t="s">
         <v>2524</v>
-      </c>
-      <c r="CG194" s="1" t="s">
-        <v>2525</v>
       </c>
       <c r="CH194" s="1" t="s">
         <v>130</v>
@@ -47583,13 +47522,13 @@
         <v>96</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2525</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2526</v>
       </c>
-      <c r="L195" s="1" t="s">
+      <c r="N195" s="1" t="s">
         <v>2527</v>
-      </c>
-      <c r="N195" s="1" t="s">
-        <v>2528</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>100</v>
@@ -47670,7 +47609,7 @@
         <v>20</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="BE195" s="1" t="s">
         <v>113</v>
@@ -47682,10 +47621,10 @@
         <v>115</v>
       </c>
       <c r="BH195" s="1" t="s">
+        <v>2529</v>
+      </c>
+      <c r="BI195" s="1" t="s">
         <v>2530</v>
-      </c>
-      <c r="BI195" s="1" t="s">
-        <v>2531</v>
       </c>
       <c r="BM195" s="1" t="s">
         <v>118</v>
@@ -47697,13 +47636,13 @@
         <v>102</v>
       </c>
       <c r="BR195" s="1" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="BS195" s="3">
         <v>37334</v>
       </c>
       <c r="BT195" s="1" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="BU195" s="1" t="s">
         <v>122</v>
@@ -47724,16 +47663,16 @@
         <v>522</v>
       </c>
       <c r="CD195" s="1" t="s">
+        <v>2533</v>
+      </c>
+      <c r="CE195" s="1" t="s">
         <v>2534</v>
       </c>
-      <c r="CE195" s="1" t="s">
+      <c r="CG195" s="1" t="s">
         <v>2535</v>
       </c>
-      <c r="CG195" s="1" t="s">
+      <c r="CH195" s="1" t="s">
         <v>2536</v>
-      </c>
-      <c r="CH195" s="1" t="s">
-        <v>2537</v>
       </c>
       <c r="CI195" s="1" t="s">
         <v>130</v>
@@ -47771,13 +47710,13 @@
         <v>391</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2538</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="N196" s="1" t="s">
         <v>2539</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>2540</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>100</v>
@@ -47858,7 +47797,7 @@
         <v>20</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="BE196" s="1" t="s">
         <v>113</v>
@@ -47870,10 +47809,10 @@
         <v>115</v>
       </c>
       <c r="BH196" s="1" t="s">
+        <v>2541</v>
+      </c>
+      <c r="BI196" s="1" t="s">
         <v>2542</v>
-      </c>
-      <c r="BI196" s="1" t="s">
-        <v>2543</v>
       </c>
       <c r="BM196" s="1" t="s">
         <v>118</v>
@@ -47885,13 +47824,13 @@
         <v>102</v>
       </c>
       <c r="BR196" s="1" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="BS196" s="3">
         <v>37904</v>
       </c>
       <c r="BT196" s="1" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="BU196" s="1" t="s">
         <v>122</v>
@@ -47912,16 +47851,16 @@
         <v>961</v>
       </c>
       <c r="CD196" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="CE196" s="1" t="s">
         <v>2546</v>
       </c>
-      <c r="CE196" s="1" t="s">
+      <c r="CG196" s="1" t="s">
         <v>2547</v>
       </c>
-      <c r="CG196" s="1" t="s">
+      <c r="CH196" s="1" t="s">
         <v>2548</v>
-      </c>
-      <c r="CH196" s="1" t="s">
-        <v>2549</v>
       </c>
       <c r="CI196" s="1" t="s">
         <v>130</v>
@@ -47941,7 +47880,7 @@
         <v>189</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>101</v>
@@ -47953,19 +47892,19 @@
         <v>94</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2549</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2550</v>
       </c>
-      <c r="L197" s="1" t="s">
+      <c r="N197" s="1" t="s">
         <v>2551</v>
-      </c>
-      <c r="N197" s="1" t="s">
-        <v>2552</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>100</v>
@@ -48046,7 +47985,7 @@
         <v>20</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="BE197" s="1" t="s">
         <v>113</v>
@@ -48058,7 +47997,7 @@
         <v>115</v>
       </c>
       <c r="BH197" s="1" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="BM197" s="1" t="s">
         <v>118</v>
@@ -48070,13 +48009,13 @@
         <v>119</v>
       </c>
       <c r="BR197" s="1" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="BS197" s="3">
         <v>36111</v>
       </c>
       <c r="BT197" s="1" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="BU197" s="1" t="s">
         <v>122</v>
@@ -48085,7 +48024,7 @@
         <v>0</v>
       </c>
       <c r="BZ197" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="CA197" s="1" t="s">
         <v>124</v>
@@ -48094,16 +48033,16 @@
         <v>101</v>
       </c>
       <c r="CC197" s="1" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="CD197" s="1" t="s">
         <v>1143</v>
       </c>
       <c r="CE197" s="1" t="s">
+        <v>2557</v>
+      </c>
+      <c r="CG197" s="1" t="s">
         <v>2558</v>
-      </c>
-      <c r="CG197" s="1" t="s">
-        <v>2559</v>
       </c>
       <c r="CH197" s="1" t="s">
         <v>130</v>
@@ -48144,13 +48083,13 @@
         <v>96</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2559</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2560</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="N198" s="1" t="s">
         <v>2561</v>
-      </c>
-      <c r="N198" s="1" t="s">
-        <v>2562</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>100</v>
@@ -48231,7 +48170,7 @@
         <v>20</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="BE198" s="1" t="s">
         <v>113</v>
@@ -48243,7 +48182,7 @@
         <v>115</v>
       </c>
       <c r="BH198" s="1" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="BI198" s="1" t="s">
         <v>1876</v>
@@ -48258,13 +48197,13 @@
         <v>119</v>
       </c>
       <c r="BR198" s="1" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="BS198" s="3">
         <v>37785</v>
       </c>
       <c r="BT198" s="1" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="BU198" s="1" t="s">
         <v>122</v>
@@ -48282,16 +48221,16 @@
         <v>101</v>
       </c>
       <c r="CC198" s="1" t="s">
+        <v>2566</v>
+      </c>
+      <c r="CD198" s="1" t="s">
         <v>2567</v>
       </c>
-      <c r="CD198" s="1" t="s">
+      <c r="CE198" s="1" t="s">
         <v>2568</v>
       </c>
-      <c r="CE198" s="1" t="s">
+      <c r="CG198" s="1" t="s">
         <v>2569</v>
-      </c>
-      <c r="CG198" s="1" t="s">
-        <v>2570</v>
       </c>
       <c r="CH198" s="1" t="s">
         <v>1883</v>
@@ -48308,10 +48247,10 @@
         <v>88</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>152</v>
@@ -48326,19 +48265,19 @@
         <v>94</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2573</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2574</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2575</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>100</v>
@@ -48425,7 +48364,7 @@
         <v>20</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="BE199" s="1" t="s">
         <v>113</v>
@@ -48437,7 +48376,7 @@
         <v>115</v>
       </c>
       <c r="BH199" s="1" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="BI199" s="1" t="s">
         <v>381</v>
@@ -48449,7 +48388,7 @@
         <v>105</v>
       </c>
       <c r="BT199" s="1" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="BU199" s="1" t="s">
         <v>122</v>
@@ -48458,7 +48397,7 @@
         <v>0</v>
       </c>
       <c r="BZ199" s="1" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="CA199" s="1" t="s">
         <v>124</v>
@@ -48470,13 +48409,13 @@
         <v>1261</v>
       </c>
       <c r="CD199" s="1" t="s">
+        <v>2579</v>
+      </c>
+      <c r="CE199" s="1" t="s">
         <v>2580</v>
       </c>
-      <c r="CE199" s="1" t="s">
+      <c r="CG199" s="1" t="s">
         <v>2581</v>
-      </c>
-      <c r="CG199" s="1" t="s">
-        <v>2582</v>
       </c>
       <c r="CH199" s="1" t="s">
         <v>388</v>
@@ -48517,13 +48456,13 @@
         <v>96</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2582</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2583</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2584</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2585</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>100</v>
@@ -48601,7 +48540,7 @@
         <v>101</v>
       </c>
       <c r="AZ200" s="1" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="BB200" s="1">
         <v>9</v>
@@ -48610,7 +48549,7 @@
         <v>20</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="BE200" s="1" t="s">
         <v>113</v>
@@ -48622,7 +48561,7 @@
         <v>115</v>
       </c>
       <c r="BH200" s="1" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="BM200" s="1" t="s">
         <v>118</v>
@@ -48631,7 +48570,7 @@
         <v>105</v>
       </c>
       <c r="BT200" s="1" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="BU200" s="1" t="s">
         <v>122</v>
@@ -48649,16 +48588,16 @@
         <v>101</v>
       </c>
       <c r="CC200" s="1" t="s">
+        <v>2589</v>
+      </c>
+      <c r="CD200" s="1" t="s">
         <v>2590</v>
       </c>
-      <c r="CD200" s="1" t="s">
+      <c r="CE200" s="1" t="s">
         <v>2591</v>
       </c>
-      <c r="CE200" s="1" t="s">
+      <c r="CG200" s="1" t="s">
         <v>2592</v>
-      </c>
-      <c r="CG200" s="1" t="s">
-        <v>2593</v>
       </c>
       <c r="CH200" s="1" t="s">
         <v>130</v>
@@ -48699,13 +48638,13 @@
         <v>96</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2594</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="N201" s="1" t="s">
         <v>2595</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>2596</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>100</v>
@@ -48783,7 +48722,7 @@
         <v>101</v>
       </c>
       <c r="AZ201" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="BB201" s="1">
         <v>9</v>
@@ -48792,7 +48731,7 @@
         <v>20</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="BE201" s="1" t="s">
         <v>113</v>
@@ -48804,7 +48743,7 @@
         <v>115</v>
       </c>
       <c r="BH201" s="1" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="BI201" s="1" t="s">
         <v>1833</v>
@@ -48816,7 +48755,7 @@
         <v>105</v>
       </c>
       <c r="BT201" s="1" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="BU201" s="1" t="s">
         <v>122</v>
@@ -48834,16 +48773,16 @@
         <v>101</v>
       </c>
       <c r="CC201" s="1" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="CD201" s="1" t="s">
         <v>1120</v>
       </c>
       <c r="CE201" s="1" t="s">
+        <v>2600</v>
+      </c>
+      <c r="CG201" s="1" t="s">
         <v>2601</v>
-      </c>
-      <c r="CG201" s="1" t="s">
-        <v>2602</v>
       </c>
       <c r="CH201" s="1" t="s">
         <v>1837</v>
@@ -48884,13 +48823,13 @@
         <v>96</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2602</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2603</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>2604</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>2605</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>100</v>
@@ -48968,7 +48907,7 @@
         <v>101</v>
       </c>
       <c r="AZ202" s="1" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="BB202" s="1">
         <v>9</v>
@@ -48977,7 +48916,7 @@
         <v>20</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="BE202" s="1" t="s">
         <v>113</v>
@@ -48998,7 +48937,7 @@
         <v>105</v>
       </c>
       <c r="BT202" s="1" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="BU202" s="1" t="s">
         <v>122</v>
@@ -49019,10 +48958,10 @@
         <v>1120</v>
       </c>
       <c r="CD202" s="1" t="s">
+        <v>2608</v>
+      </c>
+      <c r="CE202" s="1" t="s">
         <v>2609</v>
-      </c>
-      <c r="CE202" s="1" t="s">
-        <v>2610</v>
       </c>
       <c r="CG202" s="1" t="s">
         <v>1036</v>
@@ -49066,13 +49005,13 @@
         <v>96</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2610</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2611</v>
       </c>
-      <c r="L203" s="1" t="s">
+      <c r="N203" s="1" t="s">
         <v>2612</v>
-      </c>
-      <c r="N203" s="1" t="s">
-        <v>2613</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>100</v>
@@ -49150,7 +49089,7 @@
         <v>101</v>
       </c>
       <c r="AZ203" s="1" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="BB203" s="1">
         <v>9</v>
@@ -49159,7 +49098,7 @@
         <v>20</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="BE203" s="1" t="s">
         <v>113</v>
@@ -49171,7 +49110,7 @@
         <v>115</v>
       </c>
       <c r="BH203" s="1" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="BI203" s="1" t="s">
         <v>1833</v>
@@ -49189,13 +49128,13 @@
         <v>165</v>
       </c>
       <c r="BR203" s="1" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="BS203" s="3">
         <v>37513</v>
       </c>
       <c r="BT203" s="1" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="BU203" s="1" t="s">
         <v>122</v>
@@ -49213,16 +49152,16 @@
         <v>101</v>
       </c>
       <c r="CC203" s="1" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="CD203" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CE203" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="CG203" s="1" t="s">
         <v>2620</v>
-      </c>
-      <c r="CG203" s="1" t="s">
-        <v>2621</v>
       </c>
       <c r="CH203" s="1" t="s">
         <v>1837</v>
@@ -49263,13 +49202,13 @@
         <v>96</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2621</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2622</v>
       </c>
-      <c r="L204" s="1" t="s">
+      <c r="N204" s="1" t="s">
         <v>2623</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>2624</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>100</v>
@@ -49350,7 +49289,7 @@
         <v>20</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="BE204" s="1" t="s">
         <v>113</v>
@@ -49362,10 +49301,10 @@
         <v>115</v>
       </c>
       <c r="BH204" s="1" t="s">
+        <v>2625</v>
+      </c>
+      <c r="BI204" s="1" t="s">
         <v>2626</v>
-      </c>
-      <c r="BI204" s="1" t="s">
-        <v>2627</v>
       </c>
       <c r="BM204" s="1" t="s">
         <v>118</v>
@@ -49377,13 +49316,13 @@
         <v>102</v>
       </c>
       <c r="BR204" s="1" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="BS204" s="3">
         <v>41024</v>
       </c>
       <c r="BT204" s="1" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="BU204" s="1" t="s">
         <v>122</v>
@@ -49401,19 +49340,19 @@
         <v>101</v>
       </c>
       <c r="CC204" s="1" t="s">
+        <v>2629</v>
+      </c>
+      <c r="CD204" s="1" t="s">
         <v>2630</v>
       </c>
-      <c r="CD204" s="1" t="s">
+      <c r="CE204" s="1" t="s">
         <v>2631</v>
       </c>
-      <c r="CE204" s="1" t="s">
+      <c r="CG204" s="1" t="s">
         <v>2632</v>
       </c>
-      <c r="CG204" s="1" t="s">
+      <c r="CH204" s="1" t="s">
         <v>2633</v>
-      </c>
-      <c r="CH204" s="1" t="s">
-        <v>2634</v>
       </c>
       <c r="CI204" s="1" t="s">
         <v>130</v>
@@ -49451,13 +49390,13 @@
         <v>96</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2634</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2635</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2636</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2637</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>100</v>
@@ -49493,7 +49432,7 @@
         <v>106</v>
       </c>
       <c r="AG205" s="1" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="AH205" s="1" t="s">
         <v>1908</v>
@@ -49538,7 +49477,7 @@
         <v>101</v>
       </c>
       <c r="AZ205" s="1" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="BB205" s="1">
         <v>9</v>
@@ -49547,7 +49486,7 @@
         <v>20</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="BE205" s="1" t="s">
         <v>113</v>
@@ -49559,7 +49498,7 @@
         <v>115</v>
       </c>
       <c r="BH205" s="1" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="BI205" s="1" t="s">
         <v>381</v>
@@ -49574,13 +49513,13 @@
         <v>119</v>
       </c>
       <c r="BR205" s="1" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="BS205" s="3">
         <v>34808</v>
       </c>
       <c r="BT205" s="1" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="BU205" s="1" t="s">
         <v>122</v>
@@ -49598,16 +49537,16 @@
         <v>101</v>
       </c>
       <c r="CC205" s="1" t="s">
+        <v>2642</v>
+      </c>
+      <c r="CD205" s="1" t="s">
         <v>2643</v>
       </c>
-      <c r="CD205" s="1" t="s">
+      <c r="CE205" s="1" t="s">
         <v>2644</v>
       </c>
-      <c r="CE205" s="1" t="s">
+      <c r="CG205" s="1" t="s">
         <v>2645</v>
-      </c>
-      <c r="CG205" s="1" t="s">
-        <v>2646</v>
       </c>
       <c r="CH205" s="1" t="s">
         <v>388</v>
@@ -49648,13 +49587,13 @@
         <v>96</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2646</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>2647</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="N206" s="1" t="s">
         <v>2648</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>2649</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>100</v>
@@ -49729,7 +49668,7 @@
         <v>101</v>
       </c>
       <c r="AZ206" s="1" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="BB206" s="1">
         <v>9</v>
@@ -49738,7 +49677,7 @@
         <v>20</v>
       </c>
       <c r="BD206" s="1" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="BE206" s="1" t="s">
         <v>113</v>
@@ -49750,7 +49689,7 @@
         <v>115</v>
       </c>
       <c r="BH206" s="1" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="BI206" s="1" t="s">
         <v>933</v>
@@ -49765,13 +49704,13 @@
         <v>102</v>
       </c>
       <c r="BR206" s="1" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="BS206" s="3">
         <v>37336</v>
       </c>
       <c r="BT206" s="1" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="BU206" s="1" t="s">
         <v>122</v>
@@ -49789,16 +49728,16 @@
         <v>101</v>
       </c>
       <c r="CC206" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="CD206" s="1" t="s">
         <v>2655</v>
       </c>
-      <c r="CD206" s="1" t="s">
+      <c r="CE206" s="1" t="s">
         <v>2656</v>
       </c>
-      <c r="CE206" s="1" t="s">
+      <c r="CG206" s="1" t="s">
         <v>2657</v>
-      </c>
-      <c r="CG206" s="1" t="s">
-        <v>2658</v>
       </c>
       <c r="CH206" s="1" t="s">
         <v>939</v>
@@ -49839,13 +49778,13 @@
         <v>96</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2658</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>2659</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="N207" s="1" t="s">
         <v>2660</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>2661</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>100</v>
@@ -49923,7 +49862,7 @@
         <v>101</v>
       </c>
       <c r="AZ207" s="1" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="BB207" s="1">
         <v>9</v>
@@ -49932,7 +49871,7 @@
         <v>20</v>
       </c>
       <c r="BD207" s="1" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="BE207" s="1" t="s">
         <v>113</v>
@@ -49944,7 +49883,7 @@
         <v>115</v>
       </c>
       <c r="BH207" s="1" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="BI207" s="1" t="s">
         <v>746</v>
@@ -49956,7 +49895,7 @@
         <v>105</v>
       </c>
       <c r="BT207" s="1" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="BU207" s="1" t="s">
         <v>122</v>
@@ -49974,16 +49913,16 @@
         <v>101</v>
       </c>
       <c r="CC207" s="1" t="s">
+        <v>2665</v>
+      </c>
+      <c r="CD207" s="1" t="s">
         <v>2666</v>
       </c>
-      <c r="CD207" s="1" t="s">
+      <c r="CE207" s="1" t="s">
         <v>2667</v>
       </c>
-      <c r="CE207" s="1" t="s">
+      <c r="CG207" s="1" t="s">
         <v>2668</v>
-      </c>
-      <c r="CG207" s="1" t="s">
-        <v>2669</v>
       </c>
       <c r="CH207" s="1" t="s">
         <v>752</v>
@@ -50024,13 +49963,13 @@
         <v>96</v>
       </c>
       <c r="K208" s="1" t="s">
+        <v>2669</v>
+      </c>
+      <c r="L208" s="1" t="s">
         <v>2670</v>
       </c>
-      <c r="L208" s="1" t="s">
+      <c r="N208" s="1" t="s">
         <v>2671</v>
-      </c>
-      <c r="N208" s="1" t="s">
-        <v>2672</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>100</v>
@@ -50117,7 +50056,7 @@
         <v>20</v>
       </c>
       <c r="BD208" s="1" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="BE208" s="1" t="s">
         <v>113</v>
@@ -50129,7 +50068,7 @@
         <v>115</v>
       </c>
       <c r="BH208" s="1" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="BM208" s="1" t="s">
         <v>118</v>
@@ -50138,7 +50077,7 @@
         <v>105</v>
       </c>
       <c r="BT208" s="1" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="BU208" s="1" t="s">
         <v>122</v>
@@ -50156,16 +50095,16 @@
         <v>101</v>
       </c>
       <c r="CC208" s="1" t="s">
+        <v>2675</v>
+      </c>
+      <c r="CD208" s="1" t="s">
         <v>2676</v>
       </c>
-      <c r="CD208" s="1" t="s">
+      <c r="CE208" s="1" t="s">
         <v>2677</v>
       </c>
-      <c r="CE208" s="1" t="s">
+      <c r="CG208" s="1" t="s">
         <v>2678</v>
-      </c>
-      <c r="CG208" s="1" t="s">
-        <v>2679</v>
       </c>
       <c r="CH208" s="1" t="s">
         <v>130</v>
@@ -50206,13 +50145,13 @@
         <v>2142</v>
       </c>
       <c r="K209" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="L209" s="1" t="s">
         <v>2680</v>
       </c>
-      <c r="L209" s="1" t="s">
+      <c r="N209" s="1" t="s">
         <v>2681</v>
-      </c>
-      <c r="N209" s="1" t="s">
-        <v>2682</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>100</v>
@@ -50247,12 +50186,7 @@
       <c r="AA209" s="1">
         <v>0</v>
       </c>
-      <c r="AC209" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD209" s="1" t="s">
-        <v>2683</v>
-      </c>
+      <c r="AC209" s="3"/>
       <c r="AF209" s="1" t="s">
         <v>106</v>
       </c>
@@ -50302,7 +50236,7 @@
         <v>101</v>
       </c>
       <c r="AZ209" s="1" t="s">
-        <v>2684</v>
+        <v>2682</v>
       </c>
       <c r="BB209" s="1">
         <v>9</v>
@@ -50311,7 +50245,7 @@
         <v>20</v>
       </c>
       <c r="BD209" s="1" t="s">
-        <v>2685</v>
+        <v>2683</v>
       </c>
       <c r="BE209" s="1" t="s">
         <v>113</v>
@@ -50323,7 +50257,7 @@
         <v>115</v>
       </c>
       <c r="BH209" s="1" t="s">
-        <v>2686</v>
+        <v>2684</v>
       </c>
       <c r="BI209" s="1" t="s">
         <v>1749</v>
@@ -50335,7 +50269,7 @@
         <v>105</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>122</v>
@@ -50347,7 +50281,7 @@
         <v>110</v>
       </c>
       <c r="BZ209" s="1" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
       <c r="CA209" s="1" t="s">
         <v>124</v>
@@ -50359,13 +50293,13 @@
         <v>1167</v>
       </c>
       <c r="CD209" s="1" t="s">
+        <v>2687</v>
+      </c>
+      <c r="CE209" s="1" t="s">
+        <v>2688</v>
+      </c>
+      <c r="CG209" s="1" t="s">
         <v>2689</v>
-      </c>
-      <c r="CE209" s="1" t="s">
-        <v>2690</v>
-      </c>
-      <c r="CG209" s="1" t="s">
-        <v>2691</v>
       </c>
       <c r="CH209" s="1" t="s">
         <v>1755</v>
@@ -50406,10 +50340,10 @@
         <v>96</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>110</v>
@@ -50433,7 +50367,7 @@
         <v>106</v>
       </c>
       <c r="AG210" s="1" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
       <c r="AH210" s="1" t="s">
         <v>377</v>
@@ -50487,10 +50421,10 @@
         <v>101</v>
       </c>
       <c r="CC210" s="1" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
       <c r="CE210" s="1" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="211" spans="1:87" x14ac:dyDescent="0.25">
@@ -50501,13 +50435,13 @@
         <v>88</v>
       </c>
       <c r="C211" s="1" t="s">
+        <v>2375</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>2376</v>
       </c>
-      <c r="D211" s="1" t="s">
-        <v>2377</v>
-      </c>
       <c r="E211" s="1" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>101</v>
@@ -50519,16 +50453,16 @@
         <v>94</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>110</v>
@@ -50552,7 +50486,7 @@
         <v>106</v>
       </c>
       <c r="AG211" s="1" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
       <c r="AH211" s="1" t="s">
         <v>377</v>
@@ -50597,7 +50531,7 @@
         <v>0</v>
       </c>
       <c r="BZ211" s="1" t="s">
-        <v>2700</v>
+        <v>2698</v>
       </c>
       <c r="CA211" s="1" t="s">
         <v>124</v>
@@ -50606,10 +50540,10 @@
         <v>101</v>
       </c>
       <c r="CC211" s="1" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
       <c r="CE211" s="1" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="212" spans="1:87" x14ac:dyDescent="0.25">
@@ -50644,10 +50578,10 @@
         <v>96</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>110</v>
@@ -50671,7 +50605,7 @@
         <v>106</v>
       </c>
       <c r="AG212" s="1" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
       <c r="AH212" s="1" t="s">
         <v>377</v>
@@ -50725,10 +50659,10 @@
         <v>101</v>
       </c>
       <c r="CC212" s="1" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
       <c r="CE212" s="1" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="213" spans="1:87" x14ac:dyDescent="0.25">
@@ -50745,7 +50679,7 @@
         <v>90</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>92</v>
@@ -50757,16 +50691,16 @@
         <v>94</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>2705</v>
+        <v>2703</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>110</v>
@@ -50835,7 +50769,7 @@
         <v>0</v>
       </c>
       <c r="BZ213" s="1" t="s">
-        <v>2707</v>
+        <v>2705</v>
       </c>
       <c r="CA213" s="1" t="s">
         <v>124</v>
@@ -50844,10 +50778,10 @@
         <v>101</v>
       </c>
       <c r="CC213" s="1" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
       <c r="CE213" s="1" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="214" spans="1:87" x14ac:dyDescent="0.25">
@@ -50882,10 +50816,10 @@
         <v>96</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>110</v>
@@ -50963,10 +50897,10 @@
         <v>101</v>
       </c>
       <c r="CC214" s="1" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
       <c r="CE214" s="1" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="215" spans="1:87" x14ac:dyDescent="0.25">
@@ -50983,7 +50917,7 @@
         <v>90</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>92</v>
@@ -50995,16 +50929,16 @@
         <v>94</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>2710</v>
+        <v>2708</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>2711</v>
+        <v>2709</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>110</v>
@@ -51073,7 +51007,7 @@
         <v>0</v>
       </c>
       <c r="BZ215" s="1" t="s">
-        <v>2707</v>
+        <v>2705</v>
       </c>
       <c r="CA215" s="1" t="s">
         <v>124</v>
@@ -51082,10 +51016,10 @@
         <v>101</v>
       </c>
       <c r="CC215" s="1" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
       <c r="CE215" s="1" t="s">
-        <v>2711</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="216" spans="1:87" x14ac:dyDescent="0.25">
@@ -51120,10 +51054,10 @@
         <v>96</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>2712</v>
+        <v>2710</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>2713</v>
+        <v>2711</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>110</v>
@@ -51201,10 +51135,10 @@
         <v>101</v>
       </c>
       <c r="CC216" s="1" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
       <c r="CE216" s="1" t="s">
-        <v>2713</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="217" spans="1:87" x14ac:dyDescent="0.25">
@@ -51239,13 +51173,13 @@
         <v>96</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2712</v>
+      </c>
+      <c r="L217" s="1" t="s">
+        <v>2713</v>
+      </c>
+      <c r="N217" s="1" t="s">
         <v>2714</v>
-      </c>
-      <c r="L217" s="1" t="s">
-        <v>2715</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2716</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>100</v>
@@ -51274,12 +51208,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2683</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>106</v>
       </c>
@@ -51332,7 +51261,7 @@
         <v>20</v>
       </c>
       <c r="BD217" s="1" t="s">
-        <v>2717</v>
+        <v>2715</v>
       </c>
       <c r="BE217" s="1" t="s">
         <v>113</v>
@@ -51344,7 +51273,7 @@
         <v>115</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2718</v>
+        <v>2716</v>
       </c>
       <c r="BI217" s="1" t="s">
         <v>381</v>
@@ -51359,13 +51288,13 @@
         <v>102</v>
       </c>
       <c r="BR217" s="1" t="s">
-        <v>2719</v>
+        <v>2717</v>
       </c>
       <c r="BS217" s="3">
         <v>36306</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2720</v>
+        <v>2718</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>122</v>
@@ -51383,16 +51312,16 @@
         <v>101</v>
       </c>
       <c r="CC217" s="1" t="s">
+        <v>2719</v>
+      </c>
+      <c r="CD217" s="1" t="s">
+        <v>2720</v>
+      </c>
+      <c r="CE217" s="1" t="s">
         <v>2721</v>
       </c>
-      <c r="CD217" s="1" t="s">
+      <c r="CG217" s="1" t="s">
         <v>2722</v>
-      </c>
-      <c r="CE217" s="1" t="s">
-        <v>2723</v>
-      </c>
-      <c r="CG217" s="1" t="s">
-        <v>2724</v>
       </c>
       <c r="CH217" s="1" t="s">
         <v>388</v>
@@ -51433,13 +51362,13 @@
         <v>96</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>2724</v>
+      </c>
+      <c r="N218" s="1" t="s">
         <v>2725</v>
-      </c>
-      <c r="L218" s="1" t="s">
-        <v>2726</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2727</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>100</v>
@@ -51468,12 +51397,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2683</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>106</v>
       </c>
@@ -51529,7 +51453,7 @@
         <v>20</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2728</v>
+        <v>2726</v>
       </c>
       <c r="BE218" s="1" t="s">
         <v>113</v>
@@ -51541,7 +51465,7 @@
         <v>115</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2729</v>
+        <v>2727</v>
       </c>
       <c r="BM218" s="1" t="s">
         <v>118</v>
@@ -51550,7 +51474,7 @@
         <v>105</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2730</v>
+        <v>2728</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>122</v>
@@ -51568,16 +51492,16 @@
         <v>101</v>
       </c>
       <c r="CC218" s="1" t="s">
-        <v>2731</v>
+        <v>2729</v>
       </c>
       <c r="CD218" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CE218" s="1" t="s">
-        <v>2732</v>
+        <v>2730</v>
       </c>
       <c r="CG218" s="1" t="s">
-        <v>2733</v>
+        <v>2731</v>
       </c>
       <c r="CH218" s="1" t="s">
         <v>130</v>
@@ -51618,13 +51542,13 @@
         <v>96</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2732</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>2733</v>
+      </c>
+      <c r="N219" s="1" t="s">
         <v>2734</v>
-      </c>
-      <c r="L219" s="1" t="s">
-        <v>2735</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2736</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>100</v>
@@ -51656,12 +51580,7 @@
       <c r="AB219" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AC219" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2683</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>106</v>
       </c>
@@ -51714,7 +51633,7 @@
         <v>20</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2737</v>
+        <v>2735</v>
       </c>
       <c r="BE219" s="1" t="s">
         <v>113</v>
@@ -51726,7 +51645,7 @@
         <v>115</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2738</v>
+        <v>2736</v>
       </c>
       <c r="BI219" s="1" t="s">
         <v>381</v>
@@ -51741,13 +51660,13 @@
         <v>102</v>
       </c>
       <c r="BR219" s="1" t="s">
-        <v>2739</v>
+        <v>2737</v>
       </c>
       <c r="BS219" s="3">
         <v>38234</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2740</v>
+        <v>2738</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>122</v>
@@ -51765,16 +51684,16 @@
         <v>101</v>
       </c>
       <c r="CC219" s="1" t="s">
-        <v>2741</v>
+        <v>2739</v>
       </c>
       <c r="CD219" s="1" t="s">
         <v>1011</v>
       </c>
       <c r="CE219" s="1" t="s">
-        <v>2742</v>
+        <v>2740</v>
       </c>
       <c r="CG219" s="1" t="s">
-        <v>2743</v>
+        <v>2741</v>
       </c>
       <c r="CH219" s="1" t="s">
         <v>388</v>
@@ -51815,13 +51734,13 @@
         <v>96</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2742</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>2743</v>
+      </c>
+      <c r="N220" s="1" t="s">
         <v>2744</v>
-      </c>
-      <c r="L220" s="1" t="s">
-        <v>2745</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2746</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>100</v>
@@ -51850,12 +51769,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2683</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>106</v>
       </c>
@@ -51911,7 +51825,7 @@
         <v>20</v>
       </c>
       <c r="BD220" s="1" t="s">
-        <v>2747</v>
+        <v>2745</v>
       </c>
       <c r="BE220" s="1" t="s">
         <v>113</v>
@@ -51923,7 +51837,7 @@
         <v>115</v>
       </c>
       <c r="BH220" s="1" t="s">
-        <v>2748</v>
+        <v>2746</v>
       </c>
       <c r="BI220" s="1" t="s">
         <v>933</v>
@@ -51935,7 +51849,7 @@
         <v>105</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2749</v>
+        <v>2747</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>122</v>
@@ -51953,16 +51867,16 @@
         <v>101</v>
       </c>
       <c r="CC220" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="CD220" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="CE220" s="1" t="s">
         <v>2750</v>
       </c>
-      <c r="CD220" s="1" t="s">
+      <c r="CG220" s="1" t="s">
         <v>2751</v>
-      </c>
-      <c r="CE220" s="1" t="s">
-        <v>2752</v>
-      </c>
-      <c r="CG220" s="1" t="s">
-        <v>2753</v>
       </c>
       <c r="CH220" s="1" t="s">
         <v>939</v>
@@ -52003,13 +51917,13 @@
         <v>96</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2752</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="N221" s="1" t="s">
         <v>2754</v>
-      </c>
-      <c r="L221" s="1" t="s">
-        <v>2755</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2756</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>100</v>
@@ -52038,12 +51952,7 @@
       <c r="AA221" s="1">
         <v>0</v>
       </c>
-      <c r="AC221" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD221" s="1" t="s">
-        <v>2683</v>
-      </c>
+      <c r="AC221" s="3"/>
       <c r="AF221" s="1" t="s">
         <v>106</v>
       </c>
@@ -52096,7 +52005,7 @@
         <v>20</v>
       </c>
       <c r="BD221" s="1" t="s">
-        <v>2757</v>
+        <v>2755</v>
       </c>
       <c r="BE221" s="1" t="s">
         <v>113</v>
@@ -52108,7 +52017,7 @@
         <v>115</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2758</v>
+        <v>2756</v>
       </c>
       <c r="BI221" s="1" t="s">
         <v>783</v>
@@ -52123,13 +52032,13 @@
         <v>231</v>
       </c>
       <c r="BR221" s="1" t="s">
-        <v>2759</v>
+        <v>2757</v>
       </c>
       <c r="BS221" s="3">
         <v>37069</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2760</v>
+        <v>2758</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>122</v>
@@ -52150,13 +52059,13 @@
         <v>762</v>
       </c>
       <c r="CD221" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="CE221" s="1" t="s">
+        <v>2760</v>
+      </c>
+      <c r="CG221" s="1" t="s">
         <v>2761</v>
-      </c>
-      <c r="CE221" s="1" t="s">
-        <v>2762</v>
-      </c>
-      <c r="CG221" s="1" t="s">
-        <v>2763</v>
       </c>
       <c r="CH221" s="1" t="s">
         <v>789</v>
@@ -52197,13 +52106,13 @@
         <v>96</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2762</v>
+      </c>
+      <c r="L222" s="1" t="s">
+        <v>2763</v>
+      </c>
+      <c r="N222" s="1" t="s">
         <v>2764</v>
-      </c>
-      <c r="L222" s="1" t="s">
-        <v>2765</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2766</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>100</v>
@@ -52232,12 +52141,7 @@
       <c r="AA222" s="1">
         <v>0</v>
       </c>
-      <c r="AC222" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD222" s="1" t="s">
-        <v>2683</v>
-      </c>
+      <c r="AC222" s="3"/>
       <c r="AF222" s="1" t="s">
         <v>106</v>
       </c>
@@ -52293,7 +52197,7 @@
         <v>20</v>
       </c>
       <c r="BD222" s="1" t="s">
-        <v>2767</v>
+        <v>2765</v>
       </c>
       <c r="BE222" s="1" t="s">
         <v>113</v>
@@ -52305,7 +52209,7 @@
         <v>115</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
       <c r="BI222" s="1" t="s">
         <v>933</v>
@@ -52317,7 +52221,7 @@
         <v>105</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>122</v>
@@ -52335,16 +52239,16 @@
         <v>101</v>
       </c>
       <c r="CC222" s="1" t="s">
+        <v>2768</v>
+      </c>
+      <c r="CD222" s="1" t="s">
+        <v>2769</v>
+      </c>
+      <c r="CE222" s="1" t="s">
         <v>2770</v>
       </c>
-      <c r="CD222" s="1" t="s">
+      <c r="CG222" s="1" t="s">
         <v>2771</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>2772</v>
-      </c>
-      <c r="CG222" s="1" t="s">
-        <v>2773</v>
       </c>
       <c r="CH222" s="1" t="s">
         <v>939</v>
@@ -52385,13 +52289,13 @@
         <v>96</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2772</v>
+      </c>
+      <c r="L223" s="1" t="s">
+        <v>2773</v>
+      </c>
+      <c r="N223" s="1" t="s">
         <v>2774</v>
-      </c>
-      <c r="L223" s="1" t="s">
-        <v>2775</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2776</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>100</v>
@@ -52420,12 +52324,7 @@
       <c r="AA223" s="1">
         <v>0</v>
       </c>
-      <c r="AC223" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD223" s="1" t="s">
-        <v>2777</v>
-      </c>
+      <c r="AC223" s="3"/>
       <c r="AF223" s="1" t="s">
         <v>106</v>
       </c>
@@ -52472,7 +52371,7 @@
         <v>101</v>
       </c>
       <c r="AZ223" s="1" t="s">
-        <v>2778</v>
+        <v>2775</v>
       </c>
       <c r="BB223" s="1">
         <v>9</v>
@@ -52481,7 +52380,7 @@
         <v>20</v>
       </c>
       <c r="BD223" s="1" t="s">
-        <v>2779</v>
+        <v>2776</v>
       </c>
       <c r="BE223" s="1" t="s">
         <v>113</v>
@@ -52493,10 +52392,10 @@
         <v>115</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2780</v>
+        <v>2777</v>
       </c>
       <c r="BI223" s="1" t="s">
-        <v>2781</v>
+        <v>2778</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>118</v>
@@ -52508,13 +52407,13 @@
         <v>231</v>
       </c>
       <c r="BR223" s="1" t="s">
-        <v>2782</v>
+        <v>2779</v>
       </c>
       <c r="BS223" s="3">
         <v>35125</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2783</v>
+        <v>2780</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>122</v>
@@ -52532,19 +52431,19 @@
         <v>101</v>
       </c>
       <c r="CC223" s="1" t="s">
-        <v>2784</v>
+        <v>2781</v>
       </c>
       <c r="CD223" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CE223" s="1" t="s">
-        <v>2785</v>
+        <v>2782</v>
       </c>
       <c r="CG223" s="1" t="s">
-        <v>2786</v>
+        <v>2783</v>
       </c>
       <c r="CH223" s="1" t="s">
-        <v>2787</v>
+        <v>2784</v>
       </c>
       <c r="CI223" s="1" t="s">
         <v>130</v>
@@ -52582,13 +52481,13 @@
         <v>391</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>2790</v>
+        <v>2787</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>100</v>
@@ -52672,7 +52571,7 @@
         <v>20</v>
       </c>
       <c r="BD224" s="1" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="BG224" s="1" t="s">
         <v>115</v>
@@ -52681,7 +52580,7 @@
         <v>118</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>122</v>
@@ -52699,13 +52598,13 @@
         <v>92</v>
       </c>
       <c r="CC224" s="1" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="CD224" s="1" t="s">
-        <v>2794</v>
+        <v>2791</v>
       </c>
       <c r="CE224" s="1" t="s">
-        <v>2795</v>
+        <v>2792</v>
       </c>
       <c r="CG224" s="1" t="s">
         <v>130</v>
@@ -52749,13 +52648,13 @@
         <v>96</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>2796</v>
+        <v>2793</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>2797</v>
+        <v>2794</v>
       </c>
       <c r="N225" s="1" t="s">
-        <v>2798</v>
+        <v>2795</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>100</v>
@@ -52839,7 +52738,7 @@
         <v>20</v>
       </c>
       <c r="BD225" s="1" t="s">
-        <v>2799</v>
+        <v>2796</v>
       </c>
       <c r="BG225" s="1" t="s">
         <v>115</v>
@@ -52848,7 +52747,7 @@
         <v>118</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2800</v>
+        <v>2797</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>122</v>
@@ -52869,10 +52768,10 @@
         <v>561</v>
       </c>
       <c r="CD225" s="1" t="s">
-        <v>2801</v>
+        <v>2798</v>
       </c>
       <c r="CE225" s="1" t="s">
-        <v>2802</v>
+        <v>2799</v>
       </c>
       <c r="CG225" s="1" t="s">
         <v>130</v>
@@ -52916,13 +52815,13 @@
         <v>96</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>2803</v>
+        <v>2800</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>2804</v>
+        <v>2801</v>
       </c>
       <c r="N226" s="1" t="s">
-        <v>2805</v>
+        <v>2802</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>100</v>
@@ -53009,7 +52908,7 @@
         <v>20</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>2806</v>
+        <v>2803</v>
       </c>
       <c r="BE226" s="1" t="s">
         <v>113</v>
@@ -53021,13 +52920,13 @@
         <v>115</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2807</v>
+        <v>2804</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>2808</v>
+        <v>2805</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>122</v>
@@ -53045,16 +52944,16 @@
         <v>101</v>
       </c>
       <c r="CC226" s="1" t="s">
+        <v>2806</v>
+      </c>
+      <c r="CD226" s="1" t="s">
+        <v>2807</v>
+      </c>
+      <c r="CE226" s="1" t="s">
+        <v>2808</v>
+      </c>
+      <c r="CG226" s="1" t="s">
         <v>2809</v>
-      </c>
-      <c r="CD226" s="1" t="s">
-        <v>2810</v>
-      </c>
-      <c r="CE226" s="1" t="s">
-        <v>2811</v>
-      </c>
-      <c r="CG226" s="1" t="s">
-        <v>2812</v>
       </c>
       <c r="CH226" s="1" t="s">
         <v>130</v>
@@ -53098,10 +52997,10 @@
         <v>256</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="M227" s="1" t="s">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="N227" s="1" t="s">
         <v>258</v>
@@ -53131,7 +53030,7 @@
         <v>42582</v>
       </c>
       <c r="AD227" s="1" t="s">
-        <v>2815</v>
+        <v>2812</v>
       </c>
       <c r="AF227" s="1" t="s">
         <v>106</v>
@@ -53188,13 +53087,13 @@
         <v>0</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2816</v>
+        <v>2813</v>
       </c>
       <c r="BH227" s="1" t="s">
-        <v>2817</v>
+        <v>2814</v>
       </c>
       <c r="BI227" s="1" t="s">
-        <v>2818</v>
+        <v>2815</v>
       </c>
       <c r="BM227" s="1" t="s">
         <v>118</v>
@@ -53239,10 +53138,10 @@
         <v>269</v>
       </c>
       <c r="CG227" s="1" t="s">
-        <v>2819</v>
+        <v>2816</v>
       </c>
       <c r="CH227" s="1" t="s">
-        <v>2820</v>
+        <v>2817</v>
       </c>
       <c r="CI227" s="1" t="s">
         <v>130</v>
@@ -53262,7 +53161,7 @@
         <v>189</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>2821</v>
+        <v>2818</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>92</v>
@@ -53274,22 +53173,22 @@
         <v>94</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>2822</v>
+        <v>2819</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>2823</v>
+        <v>2820</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>2824</v>
+        <v>2821</v>
       </c>
       <c r="M228" s="1" t="s">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>2825</v>
+        <v>2822</v>
       </c>
       <c r="Q228" s="3">
         <v>17060</v>
@@ -53322,13 +53221,13 @@
         <v>42628</v>
       </c>
       <c r="AD228" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="AF228" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG228" s="1" t="s">
-        <v>2827</v>
+        <v>2824</v>
       </c>
       <c r="AH228" s="1" t="s">
         <v>138</v>
@@ -53373,22 +53272,22 @@
         <v>101</v>
       </c>
       <c r="AZ228" s="1" t="s">
+        <v>2825</v>
+      </c>
+      <c r="BB228" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC228" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD228" s="1" t="s">
+        <v>2826</v>
+      </c>
+      <c r="BH228" s="1" t="s">
+        <v>2827</v>
+      </c>
+      <c r="BI228" s="1" t="s">
         <v>2828</v>
-      </c>
-      <c r="BB228" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC228" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD228" s="1" t="s">
-        <v>2829</v>
-      </c>
-      <c r="BH228" s="1" t="s">
-        <v>2830</v>
-      </c>
-      <c r="BI228" s="1" t="s">
-        <v>2831</v>
       </c>
       <c r="BM228" s="1" t="s">
         <v>118</v>
@@ -53397,7 +53296,7 @@
         <v>105</v>
       </c>
       <c r="BT228" s="1" t="s">
-        <v>2832</v>
+        <v>2829</v>
       </c>
       <c r="BU228" s="1" t="s">
         <v>122</v>
@@ -53406,7 +53305,7 @@
         <v>0</v>
       </c>
       <c r="BZ228" s="1" t="s">
-        <v>2833</v>
+        <v>2830</v>
       </c>
       <c r="CA228" s="1" t="s">
         <v>124</v>
@@ -53421,13 +53320,13 @@
         <v>126</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>2834</v>
+        <v>2831</v>
       </c>
       <c r="CG228" s="1" t="s">
-        <v>2835</v>
+        <v>2832</v>
       </c>
       <c r="CH228" s="1" t="s">
-        <v>2836</v>
+        <v>2833</v>
       </c>
       <c r="CI228" s="1" t="s">
         <v>130</v>
@@ -53441,13 +53340,13 @@
         <v>88</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>2837</v>
+        <v>2834</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>2822</v>
+        <v>2819</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>101</v>
@@ -53459,22 +53358,22 @@
         <v>94</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>2839</v>
+        <v>2836</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>2840</v>
+        <v>2837</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>2841</v>
+        <v>2838</v>
       </c>
       <c r="M229" s="1" t="s">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
       <c r="Q229" s="3">
         <v>26864</v>
@@ -53504,7 +53403,7 @@
         <v>42735</v>
       </c>
       <c r="AD229" s="1" t="s">
-        <v>2843</v>
+        <v>2840</v>
       </c>
       <c r="AF229" s="1" t="s">
         <v>106</v>
@@ -53558,10 +53457,10 @@
         <v>0</v>
       </c>
       <c r="BD229" s="1" t="s">
-        <v>2844</v>
+        <v>2841</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>2845</v>
+        <v>2842</v>
       </c>
       <c r="BM229" s="1" t="s">
         <v>118</v>
@@ -53573,13 +53472,13 @@
         <v>231</v>
       </c>
       <c r="BR229" s="1" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
       <c r="BS229" s="3">
         <v>102</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>122</v>
@@ -53591,7 +53490,7 @@
         <v>110</v>
       </c>
       <c r="BZ229" s="1" t="s">
-        <v>2848</v>
+        <v>2845</v>
       </c>
       <c r="CA229" s="1" t="s">
         <v>124</v>
@@ -53600,16 +53499,16 @@
         <v>101</v>
       </c>
       <c r="CC229" s="1" t="s">
+        <v>2846</v>
+      </c>
+      <c r="CD229" s="1" t="s">
+        <v>2847</v>
+      </c>
+      <c r="CE229" s="1" t="s">
+        <v>2848</v>
+      </c>
+      <c r="CG229" s="1" t="s">
         <v>2849</v>
-      </c>
-      <c r="CD229" s="1" t="s">
-        <v>2850</v>
-      </c>
-      <c r="CE229" s="1" t="s">
-        <v>2851</v>
-      </c>
-      <c r="CG229" s="1" t="s">
-        <v>2852</v>
       </c>
       <c r="CH229" s="1" t="s">
         <v>130</v>
@@ -53650,16 +53549,16 @@
         <v>96</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>2854</v>
+        <v>2851</v>
       </c>
       <c r="M230" s="1" t="s">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>2855</v>
+        <v>2852</v>
       </c>
       <c r="Q230" s="3">
         <v>25379</v>
@@ -53689,7 +53588,7 @@
         <v>39800</v>
       </c>
       <c r="AD230" s="1" t="s">
-        <v>2856</v>
+        <v>2853</v>
       </c>
       <c r="AF230" s="1" t="s">
         <v>242</v>
@@ -53743,10 +53642,10 @@
         <v>0</v>
       </c>
       <c r="BD230" s="1" t="s">
-        <v>2857</v>
+        <v>2854</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>2858</v>
+        <v>2855</v>
       </c>
       <c r="BM230" s="1" t="s">
         <v>118</v>
@@ -53758,13 +53657,13 @@
         <v>1636</v>
       </c>
       <c r="BR230" s="1" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
       <c r="BS230" s="3">
         <v>35915</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2860</v>
+        <v>2857</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>122</v>
@@ -53794,10 +53693,10 @@
         <v>438</v>
       </c>
       <c r="CE230" s="1" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
       <c r="CG230" s="1" t="s">
-        <v>2819</v>
+        <v>2816</v>
       </c>
       <c r="CH230" s="1" t="s">
         <v>130</v>
@@ -53820,7 +53719,7 @@
         <v>90</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>2862</v>
+        <v>2859</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>101</v>
@@ -53832,22 +53731,22 @@
         <v>94</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>2863</v>
+        <v>2860</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>2865</v>
+        <v>2862</v>
       </c>
       <c r="M231" s="1" t="s">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
       <c r="Q231" s="3">
         <v>17470</v>
@@ -53877,7 +53776,7 @@
         <v>43100</v>
       </c>
       <c r="AD231" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="AF231" s="1" t="s">
         <v>106</v>
@@ -53934,10 +53833,10 @@
         <v>0</v>
       </c>
       <c r="BD231" s="1" t="s">
-        <v>2867</v>
+        <v>2864</v>
       </c>
       <c r="BH231" s="1" t="s">
-        <v>2868</v>
+        <v>2865</v>
       </c>
       <c r="BM231" s="1" t="s">
         <v>118</v>
@@ -53946,7 +53845,7 @@
         <v>105</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>122</v>
@@ -53970,16 +53869,16 @@
         <v>101</v>
       </c>
       <c r="CC231" s="1" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="CD231" s="1" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="CE231" s="1" t="s">
-        <v>2872</v>
+        <v>2869</v>
       </c>
       <c r="CG231" s="1" t="s">
-        <v>2819</v>
+        <v>2816</v>
       </c>
       <c r="CH231" s="1" t="s">
         <v>130</v>
@@ -54002,7 +53901,7 @@
         <v>90</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>101</v>
@@ -54014,22 +53913,22 @@
         <v>94</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>2873</v>
+        <v>2870</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="M232" s="1" t="s">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
       <c r="Q232" s="3">
         <v>23356</v>
@@ -54056,7 +53955,7 @@
         <v>43105</v>
       </c>
       <c r="AD232" s="1" t="s">
-        <v>2876</v>
+        <v>2873</v>
       </c>
       <c r="AF232" s="1" t="s">
         <v>106</v>
@@ -54110,10 +54009,10 @@
         <v>0</v>
       </c>
       <c r="BD232" s="1" t="s">
-        <v>2877</v>
+        <v>2874</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2878</v>
+        <v>2875</v>
       </c>
       <c r="BM232" s="1" t="s">
         <v>118</v>
@@ -54125,13 +54024,13 @@
         <v>102</v>
       </c>
       <c r="BR232" s="1" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="BS232" s="3">
         <v>34412</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>2880</v>
+        <v>2877</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>122</v>
@@ -54140,7 +54039,7 @@
         <v>0</v>
       </c>
       <c r="BZ232" s="1" t="s">
-        <v>2707</v>
+        <v>2705</v>
       </c>
       <c r="CA232" s="1" t="s">
         <v>124</v>
@@ -54149,16 +54048,16 @@
         <v>101</v>
       </c>
       <c r="CC232" s="1" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
       <c r="CD232" s="1" t="s">
         <v>2272</v>
       </c>
       <c r="CE232" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="CG232" s="1" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="CH232" s="1" t="s">
         <v>130</v>
@@ -54175,13 +54074,13 @@
         <v>88</v>
       </c>
       <c r="C233" s="1" t="s">
+        <v>2375</v>
+      </c>
+      <c r="D233" s="1" t="s">
         <v>2376</v>
       </c>
-      <c r="D233" s="1" t="s">
-        <v>2377</v>
-      </c>
       <c r="E233" s="1" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>92</v>
@@ -54193,22 +54092,22 @@
         <v>94</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>2885</v>
+        <v>2882</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="N233" s="1" t="s">
-        <v>2886</v>
+        <v>2883</v>
       </c>
       <c r="Q233" s="3">
         <v>17726</v>
@@ -54241,7 +54140,7 @@
         <v>43312</v>
       </c>
       <c r="AD233" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="AF233" s="1" t="s">
         <v>242</v>
@@ -54292,7 +54191,7 @@
         <v>101</v>
       </c>
       <c r="AZ233" s="1" t="s">
-        <v>2887</v>
+        <v>2884</v>
       </c>
       <c r="BB233" s="1">
         <v>0</v>
@@ -54301,10 +54200,10 @@
         <v>0</v>
       </c>
       <c r="BD233" s="1" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="BM233" s="1" t="s">
         <v>118</v>
@@ -54313,7 +54212,7 @@
         <v>105</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>122</v>
@@ -54322,7 +54221,7 @@
         <v>0</v>
       </c>
       <c r="BZ233" s="1" t="s">
-        <v>2700</v>
+        <v>2698</v>
       </c>
       <c r="CA233" s="1" t="s">
         <v>124</v>
@@ -54331,16 +54230,16 @@
         <v>101</v>
       </c>
       <c r="CC233" s="1" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="CD233" s="1" t="s">
-        <v>2892</v>
+        <v>2889</v>
       </c>
       <c r="CE233" s="1" t="s">
         <v>896</v>
       </c>
       <c r="CG233" s="1" t="s">
-        <v>2835</v>
+        <v>2832</v>
       </c>
       <c r="CH233" s="1" t="s">
         <v>130</v>
@@ -54363,7 +54262,7 @@
         <v>90</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>92</v>
@@ -54375,22 +54274,22 @@
         <v>94</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>2894</v>
+        <v>2891</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>2895</v>
+        <v>2892</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>2896</v>
+        <v>2893</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="N234" s="1" t="s">
-        <v>2897</v>
+        <v>2894</v>
       </c>
       <c r="Q234" s="3">
         <v>17041</v>
@@ -54417,7 +54316,7 @@
         <v>42735</v>
       </c>
       <c r="AD234" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="AF234" s="1" t="s">
         <v>106</v>
@@ -54474,10 +54373,10 @@
         <v>0</v>
       </c>
       <c r="BD234" s="1" t="s">
-        <v>2898</v>
+        <v>2895</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>2899</v>
+        <v>2896</v>
       </c>
       <c r="BM234" s="1" t="s">
         <v>118</v>
@@ -54486,7 +54385,7 @@
         <v>105</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>122</v>
@@ -54498,7 +54397,7 @@
         <v>110</v>
       </c>
       <c r="BZ234" s="1" t="s">
-        <v>2901</v>
+        <v>2898</v>
       </c>
       <c r="CA234" s="1" t="s">
         <v>124</v>
@@ -54507,16 +54406,16 @@
         <v>101</v>
       </c>
       <c r="CC234" s="1" t="s">
+        <v>2899</v>
+      </c>
+      <c r="CD234" s="1" t="s">
+        <v>2900</v>
+      </c>
+      <c r="CE234" s="1" t="s">
+        <v>2901</v>
+      </c>
+      <c r="CG234" s="1" t="s">
         <v>2902</v>
-      </c>
-      <c r="CD234" s="1" t="s">
-        <v>2903</v>
-      </c>
-      <c r="CE234" s="1" t="s">
-        <v>2904</v>
-      </c>
-      <c r="CG234" s="1" t="s">
-        <v>2905</v>
       </c>
       <c r="CH234" s="1" t="s">
         <v>130</v>
@@ -54533,13 +54432,13 @@
         <v>88</v>
       </c>
       <c r="C235" s="1" t="s">
+        <v>2375</v>
+      </c>
+      <c r="D235" s="1" t="s">
         <v>2376</v>
       </c>
-      <c r="D235" s="1" t="s">
-        <v>2377</v>
-      </c>
       <c r="E235" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>101</v>
@@ -54551,22 +54450,22 @@
         <v>94</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>2907</v>
+        <v>2904</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="Q235" s="3">
         <v>30147</v>
@@ -54589,17 +54488,12 @@
       <c r="AA235" s="1">
         <v>0</v>
       </c>
-      <c r="AC235" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD235" s="1" t="s">
-        <v>2683</v>
-      </c>
+      <c r="AC235" s="3"/>
       <c r="AF235" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG235" s="1" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
       <c r="AH235" s="1" t="s">
         <v>377</v>
@@ -54647,10 +54541,10 @@
         <v>0</v>
       </c>
       <c r="BD235" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>118</v>
@@ -54662,13 +54556,13 @@
         <v>102</v>
       </c>
       <c r="BR235" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="BS235" s="3">
         <v>37124</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>2914</v>
+        <v>2911</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>122</v>
@@ -54677,7 +54571,7 @@
         <v>0</v>
       </c>
       <c r="BZ235" s="1" t="s">
-        <v>2915</v>
+        <v>2912</v>
       </c>
       <c r="CA235" s="1" t="s">
         <v>124</v>
@@ -54686,16 +54580,16 @@
         <v>101</v>
       </c>
       <c r="CC235" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="CD235" s="1" t="s">
         <v>1143</v>
       </c>
       <c r="CE235" s="1" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="CG235" s="1" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="CH235" s="1" t="s">
         <v>130</v>
@@ -54736,16 +54630,16 @@
         <v>96</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>2918</v>
+        <v>2915</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>2919</v>
+        <v>2916</v>
       </c>
       <c r="M236" s="1" t="s">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="N236" s="1" t="s">
-        <v>2920</v>
+        <v>2917</v>
       </c>
       <c r="Q236" s="3">
         <v>17821</v>
@@ -54781,13 +54675,13 @@
         <v>43388</v>
       </c>
       <c r="AD236" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="AF236" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG236" s="1" t="s">
-        <v>2921</v>
+        <v>2918</v>
       </c>
       <c r="AH236" s="1" t="s">
         <v>1238</v>
@@ -54832,7 +54726,7 @@
         <v>101</v>
       </c>
       <c r="AZ236" s="1" t="s">
-        <v>2922</v>
+        <v>2919</v>
       </c>
       <c r="BB236" s="1">
         <v>0</v>
@@ -54841,10 +54735,10 @@
         <v>0</v>
       </c>
       <c r="BD236" s="1" t="s">
-        <v>2923</v>
+        <v>2920</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2924</v>
+        <v>2921</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>118</v>
@@ -54853,7 +54747,7 @@
         <v>105</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>2925</v>
+        <v>2922</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>122</v>
@@ -54871,16 +54765,16 @@
         <v>101</v>
       </c>
       <c r="CC236" s="1" t="s">
-        <v>2926</v>
+        <v>2923</v>
       </c>
       <c r="CD236" s="1" t="s">
-        <v>2927</v>
+        <v>2924</v>
       </c>
       <c r="CE236" s="1" t="s">
         <v>509</v>
       </c>
       <c r="CG236" s="1" t="s">
-        <v>2928</v>
+        <v>2925</v>
       </c>
       <c r="CH236" s="1" t="s">
         <v>130</v>
@@ -54894,10 +54788,10 @@
         <v>87</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>1236</v>
@@ -54912,7 +54806,7 @@
         <v>93</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="I237" s="1" t="s">
         <v>1236</v>
@@ -54921,13 +54815,13 @@
         <v>152</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="N237" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>100</v>
@@ -54981,7 +54875,7 @@
         <v>0</v>
       </c>
       <c r="AN237" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="AO237" s="1">
         <v>0</v>
@@ -55014,7 +54908,7 @@
         <v>20</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="BE237" s="1" t="s">
         <v>113</v>
@@ -55026,13 +54920,13 @@
         <v>115</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>2937</v>
+        <v>2934</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>2938</v>
+        <v>2935</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>122</v>
@@ -55050,16 +54944,16 @@
         <v>101</v>
       </c>
       <c r="CC237" s="1" t="s">
-        <v>2939</v>
+        <v>2936</v>
       </c>
       <c r="CD237" s="1" t="s">
         <v>308</v>
       </c>
       <c r="CE237" s="1" t="s">
-        <v>2940</v>
+        <v>2937</v>
       </c>
       <c r="CG237" s="1" t="s">
-        <v>2941</v>
+        <v>2938</v>
       </c>
       <c r="CH237" s="1" t="s">
         <v>130</v>
@@ -55073,10 +54967,10 @@
         <v>87</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>1236</v>
@@ -55091,7 +54985,7 @@
         <v>93</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="I238" s="1" t="s">
         <v>1236</v>
@@ -55100,13 +54994,13 @@
         <v>152</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>2942</v>
+        <v>2939</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>2943</v>
+        <v>2940</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>2944</v>
+        <v>2941</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>100</v>
@@ -55157,7 +55051,7 @@
         <v>0</v>
       </c>
       <c r="AN238" s="1" t="s">
-        <v>2945</v>
+        <v>2942</v>
       </c>
       <c r="AO238" s="1">
         <v>0</v>
@@ -55193,7 +55087,7 @@
         <v>20</v>
       </c>
       <c r="BD238" s="1" t="s">
-        <v>2946</v>
+        <v>2943</v>
       </c>
       <c r="BE238" s="1" t="s">
         <v>113</v>
@@ -55205,13 +55099,13 @@
         <v>115</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>2947</v>
+        <v>2944</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>122</v>
@@ -55238,10 +55132,10 @@
         <v>1068</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>2949</v>
+        <v>2946</v>
       </c>
       <c r="CG238" s="1" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="CH238" s="1" t="s">
         <v>130</v>
@@ -55255,10 +55149,10 @@
         <v>87</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>1236</v>
@@ -55273,7 +55167,7 @@
         <v>93</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="I239" s="1" t="s">
         <v>1236</v>
@@ -55282,13 +55176,13 @@
         <v>152</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>2951</v>
+        <v>2948</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>100</v>
@@ -55339,7 +55233,7 @@
         <v>0</v>
       </c>
       <c r="AN239" s="1" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
       <c r="AO239" s="1">
         <v>0</v>
@@ -55375,7 +55269,7 @@
         <v>20</v>
       </c>
       <c r="BD239" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="BE239" s="1" t="s">
         <v>113</v>
@@ -55387,13 +55281,13 @@
         <v>115</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="BM239" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>122</v>
@@ -55414,16 +55308,16 @@
         <v>101</v>
       </c>
       <c r="CC239" s="1" t="s">
+        <v>2955</v>
+      </c>
+      <c r="CD239" s="1" t="s">
+        <v>2956</v>
+      </c>
+      <c r="CE239" s="1" t="s">
+        <v>2957</v>
+      </c>
+      <c r="CG239" s="1" t="s">
         <v>2958</v>
-      </c>
-      <c r="CD239" s="1" t="s">
-        <v>2959</v>
-      </c>
-      <c r="CE239" s="1" t="s">
-        <v>2960</v>
-      </c>
-      <c r="CG239" s="1" t="s">
-        <v>2961</v>
       </c>
       <c r="CH239" s="1" t="s">
         <v>130</v>
@@ -55437,10 +55331,10 @@
         <v>87</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>1236</v>
@@ -55455,7 +55349,7 @@
         <v>93</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="I240" s="1" t="s">
         <v>1236</v>
@@ -55464,13 +55358,13 @@
         <v>152</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>100</v>
@@ -55557,7 +55451,7 @@
         <v>20</v>
       </c>
       <c r="BD240" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="BE240" s="1" t="s">
         <v>113</v>
@@ -55569,13 +55463,13 @@
         <v>115</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>2966</v>
+        <v>2963</v>
       </c>
       <c r="BM240" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>2967</v>
+        <v>2964</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>122</v>
@@ -55596,7 +55490,7 @@
         <v>101</v>
       </c>
       <c r="CC240" s="1" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
       <c r="CD240" s="1" t="s">
         <v>601</v>
@@ -55605,7 +55499,7 @@
         <v>509</v>
       </c>
       <c r="CG240" s="1" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
       <c r="CH240" s="1" t="s">
         <v>130</v>
@@ -55619,10 +55513,10 @@
         <v>87</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>1236</v>
@@ -55637,7 +55531,7 @@
         <v>93</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="I241" s="1" t="s">
         <v>1236</v>
@@ -55646,13 +55540,13 @@
         <v>152</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>2970</v>
+        <v>2967</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>2972</v>
+        <v>2969</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>100</v>
@@ -55706,7 +55600,7 @@
         <v>0</v>
       </c>
       <c r="AN241" s="1" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="AO241" s="1">
         <v>0</v>
@@ -55742,7 +55636,7 @@
         <v>20</v>
       </c>
       <c r="BD241" s="1" t="s">
-        <v>2974</v>
+        <v>2971</v>
       </c>
       <c r="BE241" s="1" t="s">
         <v>113</v>
@@ -55754,13 +55648,13 @@
         <v>115</v>
       </c>
       <c r="BH241" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>122</v>
@@ -55784,13 +55678,13 @@
         <v>490</v>
       </c>
       <c r="CD241" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="CE241" s="1" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="CG241" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="CH241" s="1" t="s">
         <v>130</v>
@@ -55804,10 +55698,10 @@
         <v>87</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>1236</v>
@@ -55822,7 +55716,7 @@
         <v>93</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="I242" s="1" t="s">
         <v>1236</v>
@@ -55831,13 +55725,13 @@
         <v>152</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>100</v>
@@ -55924,7 +55818,7 @@
         <v>20</v>
       </c>
       <c r="BD242" s="1" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="BE242" s="1" t="s">
         <v>113</v>
@@ -55936,13 +55830,13 @@
         <v>115</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="BM242" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>122</v>
@@ -55963,16 +55857,16 @@
         <v>101</v>
       </c>
       <c r="CC242" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="CD242" s="1" t="s">
         <v>615</v>
       </c>
       <c r="CE242" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="CG242" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="CH242" s="1" t="s">
         <v>130</v>
@@ -55986,10 +55880,10 @@
         <v>87</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>1236</v>
@@ -56004,7 +55898,7 @@
         <v>93</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="I243" s="1" t="s">
         <v>1236</v>
@@ -56013,13 +55907,13 @@
         <v>152</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>100</v>
@@ -56055,7 +55949,7 @@
         <v>106</v>
       </c>
       <c r="AG243" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="AH243" s="1" t="s">
         <v>1238</v>
@@ -56073,7 +55967,7 @@
         <v>0</v>
       </c>
       <c r="AN243" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="AO243" s="1">
         <v>0</v>
@@ -56109,7 +56003,7 @@
         <v>20</v>
       </c>
       <c r="BD243" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="BE243" s="1" t="s">
         <v>113</v>
@@ -56121,13 +56015,13 @@
         <v>115</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="BM243" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>122</v>
@@ -56148,16 +56042,16 @@
         <v>101</v>
       </c>
       <c r="CC243" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="CD243" s="1" t="s">
         <v>999</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="CG243" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="CH243" s="1" t="s">
         <v>130</v>
@@ -56171,10 +56065,10 @@
         <v>87</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>1236</v>
@@ -56189,7 +56083,7 @@
         <v>93</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="I244" s="1" t="s">
         <v>1236</v>
@@ -56198,13 +56092,13 @@
         <v>152</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>100</v>
@@ -56258,7 +56152,7 @@
         <v>0</v>
       </c>
       <c r="AN244" s="1" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="AO244" s="1">
         <v>0</v>
@@ -56294,7 +56188,7 @@
         <v>20</v>
       </c>
       <c r="BD244" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="BE244" s="1" t="s">
         <v>113</v>
@@ -56306,13 +56200,13 @@
         <v>115</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="BM244" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>122</v>
@@ -56336,13 +56230,13 @@
         <v>985</v>
       </c>
       <c r="CD244" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="CE244" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="CG244" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="CH244" s="1" t="s">
         <v>130</v>
@@ -56356,10 +56250,10 @@
         <v>87</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>1236</v>
@@ -56374,7 +56268,7 @@
         <v>93</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="I245" s="1" t="s">
         <v>1236</v>
@@ -56383,13 +56277,13 @@
         <v>152</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>100</v>
@@ -56443,7 +56337,7 @@
         <v>0</v>
       </c>
       <c r="AN245" s="1" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="AO245" s="1">
         <v>0</v>
@@ -56479,7 +56373,7 @@
         <v>20</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="BE245" s="1" t="s">
         <v>113</v>
@@ -56491,13 +56385,13 @@
         <v>115</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>122</v>
@@ -56524,10 +56418,10 @@
         <v>2107</v>
       </c>
       <c r="CE245" s="1" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="CG245" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="CH245" s="1" t="s">
         <v>130</v>
@@ -56541,10 +56435,10 @@
         <v>87</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>1236</v>
@@ -56559,7 +56453,7 @@
         <v>93</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="I246" s="1" t="s">
         <v>1236</v>
@@ -56568,13 +56462,13 @@
         <v>152</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="L246" s="1" t="s">
         <v>2216</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>100</v>
@@ -56610,7 +56504,7 @@
         <v>106</v>
       </c>
       <c r="AG246" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="AH246" s="1" t="s">
         <v>1238</v>
@@ -56625,7 +56519,7 @@
         <v>0</v>
       </c>
       <c r="AN246" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="AO246" s="1">
         <v>0</v>
@@ -56658,19 +56552,19 @@
         <v>20</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="BG246" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT246" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="BU246" s="1" t="s">
         <v>122</v>
@@ -56688,16 +56582,16 @@
         <v>101</v>
       </c>
       <c r="CC246" s="1" t="s">
+        <v>3018</v>
+      </c>
+      <c r="CD246" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="CE246" s="1" t="s">
+        <v>3020</v>
+      </c>
+      <c r="CG246" s="1" t="s">
         <v>3021</v>
-      </c>
-      <c r="CD246" s="1" t="s">
-        <v>3022</v>
-      </c>
-      <c r="CE246" s="1" t="s">
-        <v>3023</v>
-      </c>
-      <c r="CG246" s="1" t="s">
-        <v>3024</v>
       </c>
       <c r="CH246" s="1" t="s">
         <v>130</v>
@@ -56711,10 +56605,10 @@
         <v>87</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>1236</v>
@@ -56729,7 +56623,7 @@
         <v>93</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="I247" s="1" t="s">
         <v>1236</v>
@@ -56738,13 +56632,13 @@
         <v>152</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="L247" s="1" t="s">
         <v>2224</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>100</v>
@@ -56828,19 +56722,19 @@
         <v>20</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="BG247" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="BM247" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>122</v>
@@ -56861,16 +56755,16 @@
         <v>2155</v>
       </c>
       <c r="CC247" s="1" t="s">
+        <v>3027</v>
+      </c>
+      <c r="CD247" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="CE247" s="1" t="s">
+        <v>3029</v>
+      </c>
+      <c r="CG247" s="1" t="s">
         <v>3030</v>
-      </c>
-      <c r="CD247" s="1" t="s">
-        <v>3031</v>
-      </c>
-      <c r="CE247" s="1" t="s">
-        <v>3032</v>
-      </c>
-      <c r="CG247" s="1" t="s">
-        <v>3033</v>
       </c>
       <c r="CH247" s="1" t="s">
         <v>130</v>
@@ -56884,10 +56778,10 @@
         <v>87</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>1236</v>
@@ -56902,7 +56796,7 @@
         <v>93</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="I248" s="1" t="s">
         <v>1236</v>
@@ -56911,13 +56805,13 @@
         <v>152</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>100</v>
@@ -57001,7 +56895,7 @@
         <v>20</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="BE248" s="1" t="s">
         <v>113</v>
@@ -57013,13 +56907,13 @@
         <v>115</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>122</v>
@@ -57040,13 +56934,13 @@
         <v>1181</v>
       </c>
       <c r="CD248" s="1" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="CE248" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="CG248" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="CH248" s="1" t="s">
         <v>130</v>
@@ -57060,10 +56954,10 @@
         <v>87</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>1236</v>
@@ -57078,7 +56972,7 @@
         <v>93</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>1236</v>
@@ -57087,13 +56981,13 @@
         <v>152</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>100</v>
@@ -57144,7 +57038,7 @@
         <v>0</v>
       </c>
       <c r="AN249" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="AO249" s="1">
         <v>0</v>
@@ -57180,7 +57074,7 @@
         <v>20</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="BE249" s="1" t="s">
         <v>113</v>
@@ -57192,13 +57086,13 @@
         <v>115</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="BM249" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>122</v>
@@ -57219,16 +57113,16 @@
         <v>101</v>
       </c>
       <c r="CC249" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="CD249" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="CE249" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="CG249" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="CH249" s="1" t="s">
         <v>130</v>
@@ -57242,10 +57136,10 @@
         <v>87</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>1236</v>
@@ -57260,7 +57154,7 @@
         <v>93</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="I250" s="1" t="s">
         <v>1236</v>
@@ -57269,13 +57163,13 @@
         <v>152</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>100</v>
@@ -57329,7 +57223,7 @@
         <v>0</v>
       </c>
       <c r="AN250" s="1" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="AO250" s="1">
         <v>0</v>
@@ -57365,7 +57259,7 @@
         <v>20</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="BE250" s="1" t="s">
         <v>113</v>
@@ -57377,13 +57271,13 @@
         <v>115</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="BM250" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>122</v>
@@ -57404,16 +57298,16 @@
         <v>101</v>
       </c>
       <c r="CC250" s="1" t="s">
+        <v>3056</v>
+      </c>
+      <c r="CD250" s="1" t="s">
+        <v>3057</v>
+      </c>
+      <c r="CE250" s="1" t="s">
+        <v>3058</v>
+      </c>
+      <c r="CG250" s="1" t="s">
         <v>3059</v>
-      </c>
-      <c r="CD250" s="1" t="s">
-        <v>3060</v>
-      </c>
-      <c r="CE250" s="1" t="s">
-        <v>3061</v>
-      </c>
-      <c r="CG250" s="1" t="s">
-        <v>3062</v>
       </c>
       <c r="CH250" s="1" t="s">
         <v>130</v>
@@ -57427,10 +57321,10 @@
         <v>87</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>1236</v>
@@ -57445,7 +57339,7 @@
         <v>93</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="I251" s="1" t="s">
         <v>1236</v>
@@ -57454,13 +57348,13 @@
         <v>152</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>100</v>
@@ -57514,7 +57408,7 @@
         <v>0</v>
       </c>
       <c r="AN251" s="1" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="AO251" s="1">
         <v>0</v>
@@ -57550,7 +57444,7 @@
         <v>20</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="BE251" s="1" t="s">
         <v>113</v>
@@ -57562,13 +57456,13 @@
         <v>115</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="BM251" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>122</v>
@@ -57589,16 +57483,16 @@
         <v>101</v>
       </c>
       <c r="CC251" s="1" t="s">
+        <v>3066</v>
+      </c>
+      <c r="CD251" s="1" t="s">
+        <v>3067</v>
+      </c>
+      <c r="CE251" s="1" t="s">
+        <v>3068</v>
+      </c>
+      <c r="CG251" s="1" t="s">
         <v>3069</v>
-      </c>
-      <c r="CD251" s="1" t="s">
-        <v>3070</v>
-      </c>
-      <c r="CE251" s="1" t="s">
-        <v>3071</v>
-      </c>
-      <c r="CG251" s="1" t="s">
-        <v>3072</v>
       </c>
       <c r="CH251" s="1" t="s">
         <v>130</v>
@@ -57612,10 +57506,10 @@
         <v>87</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>1236</v>
@@ -57630,7 +57524,7 @@
         <v>93</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="I252" s="1" t="s">
         <v>1236</v>
@@ -57639,13 +57533,13 @@
         <v>152</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>100</v>
@@ -57738,7 +57632,7 @@
         <v>20</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="BG252" s="1" t="s">
         <v>115</v>
@@ -57765,10 +57659,10 @@
         <v>101</v>
       </c>
       <c r="CC252" s="1" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="CD252" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="CE252" s="1" t="s">
         <v>220</v>
@@ -57788,10 +57682,10 @@
         <v>87</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>1236</v>
@@ -57806,7 +57700,7 @@
         <v>93</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="I253" s="1" t="s">
         <v>1236</v>
@@ -57815,13 +57709,13 @@
         <v>152</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>100</v>
@@ -57875,7 +57769,7 @@
         <v>0</v>
       </c>
       <c r="AN253" s="1" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="AO253" s="1">
         <v>0</v>
@@ -57911,7 +57805,7 @@
         <v>20</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="BE253" s="1" t="s">
         <v>113</v>
@@ -57923,19 +57817,19 @@
         <v>115</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="BM253" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT253" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="BU253" s="1" t="s">
         <v>122</v>
       </c>
       <c r="BW253" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="BX253" s="1">
         <v>0</v>
@@ -57953,16 +57847,16 @@
         <v>101</v>
       </c>
       <c r="CC253" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="CD253" s="1" t="s">
         <v>1245</v>
       </c>
       <c r="CE253" s="1" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="CG253" s="1" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="CH253" s="1" t="s">
         <v>130</v>
@@ -57976,10 +57870,10 @@
         <v>87</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>1236</v>
@@ -57994,7 +57888,7 @@
         <v>93</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="I254" s="1" t="s">
         <v>1236</v>
@@ -58003,13 +57897,13 @@
         <v>152</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>100</v>
@@ -58060,7 +57954,7 @@
         <v>0</v>
       </c>
       <c r="AN254" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="AO254" s="1">
         <v>0</v>
@@ -58096,7 +57990,7 @@
         <v>20</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="BE254" s="1" t="s">
         <v>113</v>
@@ -58108,13 +58002,13 @@
         <v>115</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="BM254" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>122</v>
@@ -58135,16 +58029,16 @@
         <v>101</v>
       </c>
       <c r="CC254" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="CD254" s="1" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="CE254" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="CG254" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="CH254" s="1" t="s">
         <v>130</v>
@@ -58158,10 +58052,10 @@
         <v>87</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>1236</v>
@@ -58176,7 +58070,7 @@
         <v>93</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>1236</v>
@@ -58185,13 +58079,13 @@
         <v>152</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>100</v>
@@ -58218,7 +58112,7 @@
         <v>0</v>
       </c>
       <c r="AG255" s="1" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
       <c r="AH255" s="1" t="s">
         <v>377</v>
@@ -58233,7 +58127,7 @@
         <v>0</v>
       </c>
       <c r="AN255" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="AO255" s="1">
         <v>0</v>
@@ -58263,7 +58157,7 @@
         <v>20</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="BE255" s="1" t="s">
         <v>113</v>
@@ -58275,13 +58169,13 @@
         <v>115</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="BM255" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT255" s="1" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="BU255" s="1" t="s">
         <v>122</v>
@@ -58299,16 +58193,16 @@
         <v>101</v>
       </c>
       <c r="CC255" s="1" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="CD255" s="1" t="s">
         <v>308</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="CG255" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="CH255" s="1" t="s">
         <v>130</v>
@@ -58322,10 +58216,10 @@
         <v>87</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>1236</v>
@@ -58340,7 +58234,7 @@
         <v>93</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="I256" s="1" t="s">
         <v>1236</v>
@@ -58349,13 +58243,13 @@
         <v>152</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>100</v>
@@ -58439,7 +58333,7 @@
         <v>20</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="BE256" s="1" t="s">
         <v>113</v>
@@ -58451,13 +58345,13 @@
         <v>115</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="BM256" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT256" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="BU256" s="1" t="s">
         <v>122</v>
@@ -58475,16 +58369,16 @@
         <v>101</v>
       </c>
       <c r="CC256" s="1" t="s">
+        <v>3111</v>
+      </c>
+      <c r="CD256" s="1" t="s">
+        <v>3112</v>
+      </c>
+      <c r="CE256" s="1" t="s">
+        <v>3113</v>
+      </c>
+      <c r="CG256" s="1" t="s">
         <v>3114</v>
-      </c>
-      <c r="CD256" s="1" t="s">
-        <v>3115</v>
-      </c>
-      <c r="CE256" s="1" t="s">
-        <v>3116</v>
-      </c>
-      <c r="CG256" s="1" t="s">
-        <v>3117</v>
       </c>
       <c r="CH256" s="1" t="s">
         <v>130</v>
@@ -58498,10 +58392,10 @@
         <v>87</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>1236</v>
@@ -58516,7 +58410,7 @@
         <v>93</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="I257" s="1" t="s">
         <v>1236</v>
@@ -58525,13 +58419,13 @@
         <v>152</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>100</v>
@@ -58618,7 +58512,7 @@
         <v>20</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="BE257" s="1" t="s">
         <v>113</v>
@@ -58630,13 +58524,13 @@
         <v>115</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="BM257" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>122</v>
@@ -58654,16 +58548,16 @@
         <v>101</v>
       </c>
       <c r="CC257" s="1" t="s">
+        <v>3121</v>
+      </c>
+      <c r="CD257" s="1" t="s">
+        <v>3122</v>
+      </c>
+      <c r="CE257" s="1" t="s">
+        <v>3123</v>
+      </c>
+      <c r="CG257" s="1" t="s">
         <v>3124</v>
-      </c>
-      <c r="CD257" s="1" t="s">
-        <v>3125</v>
-      </c>
-      <c r="CE257" s="1" t="s">
-        <v>3126</v>
-      </c>
-      <c r="CG257" s="1" t="s">
-        <v>3127</v>
       </c>
       <c r="CH257" s="1" t="s">
         <v>130</v>
@@ -58677,10 +58571,10 @@
         <v>87</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>1236</v>
@@ -58695,7 +58589,7 @@
         <v>93</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="I258" s="1" t="s">
         <v>1236</v>
@@ -58704,13 +58598,13 @@
         <v>152</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>100</v>
@@ -58719,7 +58613,7 @@
         <v>101</v>
       </c>
       <c r="Q258" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="R258" s="1" t="s">
         <v>136</v>
@@ -58761,7 +58655,7 @@
         <v>0</v>
       </c>
       <c r="AN258" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="AO258" s="1">
         <v>0</v>
@@ -58794,7 +58688,7 @@
         <v>20</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="BE258" s="1" t="s">
         <v>113</v>
@@ -58806,13 +58700,13 @@
         <v>115</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="BM258" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT258" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="BU258" s="1" t="s">
         <v>122</v>
@@ -58830,16 +58724,16 @@
         <v>101</v>
       </c>
       <c r="CC258" s="1" t="s">
+        <v>3132</v>
+      </c>
+      <c r="CD258" s="1" t="s">
+        <v>3133</v>
+      </c>
+      <c r="CE258" s="1" t="s">
+        <v>3134</v>
+      </c>
+      <c r="CG258" s="1" t="s">
         <v>3135</v>
-      </c>
-      <c r="CD258" s="1" t="s">
-        <v>3136</v>
-      </c>
-      <c r="CE258" s="1" t="s">
-        <v>3137</v>
-      </c>
-      <c r="CG258" s="1" t="s">
-        <v>3138</v>
       </c>
       <c r="CH258" s="1" t="s">
         <v>130</v>
@@ -58880,16 +58774,16 @@
         <v>96</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="M259" s="1" t="s">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>2855</v>
+        <v>2852</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>100</v>
@@ -58922,7 +58816,7 @@
         <v>43980</v>
       </c>
       <c r="AD259" s="1" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="AF259" s="1" t="s">
         <v>106</v>
@@ -58979,7 +58873,7 @@
         <v>1826</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="BM259" s="1" t="s">
         <v>118</v>
@@ -58991,13 +58885,13 @@
         <v>1636</v>
       </c>
       <c r="BR259" s="1" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
       <c r="BS259" s="3">
         <v>35915</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>2860</v>
+        <v>2857</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>122</v>
@@ -59021,7 +58915,7 @@
         <v>438</v>
       </c>
       <c r="CE259" s="1" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
       <c r="CG259" s="1" t="s">
         <v>1827</v>
@@ -59065,16 +58959,16 @@
         <v>96</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="M260" s="1" t="s">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>100</v>
@@ -59107,7 +59001,7 @@
         <v>44008</v>
       </c>
       <c r="AD260" s="1" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="AF260" s="1" t="s">
         <v>106</v>
@@ -59164,10 +59058,10 @@
         <v>20</v>
       </c>
       <c r="BD260" s="1" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="BM260" s="1" t="s">
         <v>118</v>
@@ -59176,7 +59070,7 @@
         <v>105</v>
       </c>
       <c r="BT260" s="1" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="BU260" s="1" t="s">
         <v>122</v>
@@ -59200,10 +59094,10 @@
         <v>337</v>
       </c>
       <c r="CD260" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="CE260" s="1" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="CG260" s="1" t="s">
         <v>795</v>
@@ -59247,13 +59141,13 @@
         <v>96</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>100</v>
@@ -59289,7 +59183,7 @@
         <v>106</v>
       </c>
       <c r="AG261" s="1" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="AH261" s="1" t="s">
         <v>60</v>
@@ -59340,7 +59234,7 @@
         <v>20</v>
       </c>
       <c r="BD261" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="BE261" s="1" t="s">
         <v>113</v>
@@ -59352,7 +59246,7 @@
         <v>115</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="BM261" s="1" t="s">
         <v>118</v>
@@ -59361,7 +59255,7 @@
         <v>105</v>
       </c>
       <c r="BT261" s="1" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="BU261" s="1" t="s">
         <v>122</v>
@@ -59382,13 +59276,13 @@
         <v>337</v>
       </c>
       <c r="CD261" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="CE261" s="1" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="CG261" s="1" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="CH261" s="1" t="s">
         <v>130</v>
@@ -59405,7 +59299,7 @@
         <v>88</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>390</v>
@@ -59429,13 +59323,13 @@
         <v>96</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="O262" s="1" t="s">
         <v>100</v>
@@ -59519,7 +59413,7 @@
         <v>20</v>
       </c>
       <c r="BD262" s="1" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="BE262" s="1" t="s">
         <v>113</v>
@@ -59531,7 +59425,7 @@
         <v>115</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="BI262" s="1" t="s">
         <v>198</v>
@@ -59546,13 +59440,13 @@
         <v>231</v>
       </c>
       <c r="BR262" s="1" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="BS262" s="3">
         <v>34307</v>
       </c>
       <c r="BT262" s="1" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="BU262" s="1" t="s">
         <v>122</v>
@@ -59561,7 +59455,7 @@
         <v>0</v>
       </c>
       <c r="BZ262" s="1" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="CA262" s="1" t="s">
         <v>124</v>
@@ -59570,16 +59464,16 @@
         <v>101</v>
       </c>
       <c r="CC262" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="CD262" s="1" t="s">
         <v>426</v>
       </c>
       <c r="CE262" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="CG262" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="CH262" s="1" t="s">
         <v>205</v>
@@ -59589,6 +59483,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CI262" xr:uid="{A10CD715-93E2-4E1D-9089-9FE4B9F01C47}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>